--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B784FC08-2119-48F5-A2C8-F7B3F20AADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A855BF-BC03-4DAE-9C05-27AB0298ED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250912_20250912 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250912_20250912 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>Collector</t>
   </si>
@@ -82,16 +82,19 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>313,591.00</t>
+    <t>604,330.00</t>
   </si>
   <si>
     <t>149,376,397.00</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>2.86</t>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>7.14</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -145,21 +148,45 @@
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
+    <t>424,465.00</t>
+  </si>
+  <si>
     <t>158,254,585.00</t>
   </si>
   <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
+    <t>100,000.00</t>
+  </si>
+  <si>
     <t>174,088,684.00</t>
   </si>
   <si>
+    <t>0.06</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
+    <t>109,212.00</t>
+  </si>
+  <si>
     <t>125,834,529.00</t>
   </si>
   <si>
+    <t>0.09</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
@@ -181,9 +208,15 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
+    <t>1,788,670.00</t>
+  </si>
+  <si>
     <t>150,769,292.00</t>
   </si>
   <si>
+    <t>1.19</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
@@ -193,7 +226,16 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
+    <t>371,983.00</t>
+  </si>
+  <si>
     <t>144,129,713.00</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>3.41</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -1115,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1141,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1153,24 +1195,24 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>235</v>
+        <v>377</v>
       </c>
       <c r="I3">
         <v>14</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1182,16 +1224,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>187</v>
+        <v>723</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1208,7 +1250,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1220,16 +1262,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>636</v>
+        <v>899</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1246,7 +1288,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1258,16 +1300,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>313</v>
+        <v>465</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -1284,7 +1326,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1296,16 +1338,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>36</v>
+        <v>473</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -1322,7 +1364,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1331,36 +1373,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="I8">
         <v>15</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1369,19 +1411,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1398,7 +1440,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1407,19 +1449,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -1436,7 +1478,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1451,13 +1493,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1474,7 +1516,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1489,13 +1531,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>552</v>
+        <v>675</v>
       </c>
       <c r="I12">
         <v>16</v>
@@ -1512,7 +1554,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1527,7 +1569,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1550,7 +1592,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1559,19 +1601,19 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="I14">
         <v>15</v>
@@ -1588,7 +1630,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1603,13 +1645,13 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15">
-        <v>191</v>
+        <v>1.391</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1626,7 +1668,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1635,36 +1677,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1679,13 +1721,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1702,7 +1744,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1717,13 +1759,13 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="I18">
         <v>9</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A855BF-BC03-4DAE-9C05-27AB0298ED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD2EFB3-D11C-4128-95C6-BA61EAFA04CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250912_20250912 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250912_20250912 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Collector</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>294,131.00</t>
+    <t>893,721.00</t>
   </si>
   <si>
     <t>158,804,579.00</t>
   </si>
   <si>
-    <t>0.19</t>
+    <t>0.56</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>1,176,542.00</t>
+    <t>2,341,266.00</t>
   </si>
   <si>
     <t>148,014,722.00</t>
   </si>
   <si>
-    <t>0.79</t>
+    <t>1.58</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
@@ -178,13 +178,16 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>109,212.00</t>
+    <t>2,032,613.00</t>
   </si>
   <si>
     <t>125,834,529.00</t>
   </si>
   <si>
-    <t>0.09</t>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>0.80</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
@@ -1195,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>377</v>
+        <v>461</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -1233,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="H4">
-        <v>723</v>
+        <v>1.37</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1259,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1271,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>899</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1297,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1309,7 +1312,7 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -1347,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>473</v>
+        <v>865</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -1385,7 +1388,7 @@
         <v>44</v>
       </c>
       <c r="H8">
-        <v>404</v>
+        <v>565</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1423,7 +1426,7 @@
         <v>50</v>
       </c>
       <c r="H9">
-        <v>306</v>
+        <v>444</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1449,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
@@ -1461,7 +1464,7 @@
         <v>54</v>
       </c>
       <c r="H10">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -1478,7 +1481,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1493,13 +1496,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>272</v>
+        <v>944</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1531,13 +1534,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="I12">
         <v>16</v>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1569,13 +1572,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="I13">
         <v>16</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1604,16 +1607,16 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="I14">
         <v>15</v>
@@ -1630,7 +1633,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1645,13 +1648,13 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15">
-        <v>1.391</v>
+        <v>4.2640000000000002</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1680,16 +1683,16 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16">
-        <v>276</v>
+        <v>550</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -1698,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1721,13 +1724,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
-        <v>305</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1744,7 +1747,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1759,7 +1762,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD2EFB3-D11C-4128-95C6-BA61EAFA04CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{192FE06A-4607-4A00-BE0F-6864B3D3261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250912_20250912 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250912_20250912 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>Collector</t>
   </si>
@@ -100,13 +100,13 @@
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>2,133,109.00</t>
+    <t>2,827,991.00</t>
   </si>
   <si>
     <t>144,055,296.00</t>
   </si>
   <si>
-    <t>1.48</t>
+    <t>1.96</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
@@ -223,7 +223,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
+    <t>1,937,673.00</t>
+  </si>
+  <si>
     <t>152,115,224.00</t>
+  </si>
+  <si>
+    <t>1.27</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
@@ -1160,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1198,7 +1204,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>461</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -1224,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1236,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="H4">
-        <v>1.37</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1274,7 +1280,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>1.1879999999999999</v>
+        <v>1.373</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1312,7 +1318,7 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <v>527</v>
+        <v>1.123</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -1350,7 +1356,7 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>865</v>
+        <v>1.522</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -1388,7 +1394,7 @@
         <v>44</v>
       </c>
       <c r="H8">
-        <v>565</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1426,7 +1432,7 @@
         <v>50</v>
       </c>
       <c r="H9">
-        <v>444</v>
+        <v>637</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1464,7 +1470,7 @@
         <v>54</v>
       </c>
       <c r="H10">
-        <v>359</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -1502,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="H11">
-        <v>944</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1540,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="H12">
-        <v>719</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="I12">
         <v>16</v>
@@ -1578,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="H13">
-        <v>255</v>
+        <v>619</v>
       </c>
       <c r="I13">
         <v>16</v>
@@ -1616,7 +1622,7 @@
         <v>65</v>
       </c>
       <c r="H14">
-        <v>219</v>
+        <v>994</v>
       </c>
       <c r="I14">
         <v>15</v>
@@ -1642,19 +1648,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H15">
-        <v>4.2640000000000002</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1683,16 +1689,16 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16">
-        <v>550</v>
+        <v>883</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -1701,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1724,13 +1730,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
-        <v>1.2210000000000001</v>
+        <v>1.393</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1762,13 +1768,13 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>158</v>
+        <v>737</v>
       </c>
       <c r="I18">
         <v>9</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{192FE06A-4607-4A00-BE0F-6864B3D3261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD8CD7E-33C7-4CBD-8706-BC6A308366EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250912_20250912 (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250912_20250912 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>Collector</t>
   </si>
@@ -136,13 +136,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>341,340.00</t>
+    <t>3,904,049.00</t>
   </si>
   <si>
     <t>190,093,711.00</t>
   </si>
   <si>
-    <t>0.18</t>
+    <t>2.05</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
@@ -193,9 +193,15 @@
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
+    <t>1,559,407.00</t>
+  </si>
+  <si>
     <t>148,115,486.00</t>
   </si>
   <si>
+    <t>1.05</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
@@ -223,13 +229,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>1,937,673.00</t>
+    <t>2,996,580.00</t>
   </si>
   <si>
     <t>152,115,224.00</t>
   </si>
   <si>
-    <t>1.27</t>
+    <t>1.97</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
@@ -248,6 +254,9 @@
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>89,732.00</t>
   </si>
   <si>
     <t>153,155,827.00</t>
@@ -1100,7 +1109,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1204,7 +1213,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>1.5740000000000001</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -1242,7 +1251,7 @@
         <v>28</v>
       </c>
       <c r="H4">
-        <v>1.6419999999999999</v>
+        <v>2.1429999999999998</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1280,7 +1289,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>1.373</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1318,7 +1327,7 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <v>1.123</v>
+        <v>1.385</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -1344,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -1356,7 +1365,7 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>1.522</v>
+        <v>1.544</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -1394,7 +1403,7 @@
         <v>44</v>
       </c>
       <c r="H8">
-        <v>1.0609999999999999</v>
+        <v>1.165</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1432,7 +1441,7 @@
         <v>50</v>
       </c>
       <c r="H9">
-        <v>637</v>
+        <v>785</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1470,7 +1479,7 @@
         <v>54</v>
       </c>
       <c r="H10">
-        <v>1.0269999999999999</v>
+        <v>1.464</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -1496,19 +1505,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>1.1519999999999999</v>
+        <v>1.167</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1525,7 +1534,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1540,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>1.2090000000000001</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="I12">
         <v>16</v>
@@ -1563,7 +1572,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1578,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1601,7 +1610,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1613,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14">
         <v>994</v>
@@ -1639,7 +1648,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1648,19 +1657,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15">
-        <v>4.8099999999999996</v>
+        <v>4.9379999999999997</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1677,7 +1686,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1689,16 +1698,16 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16">
-        <v>883</v>
+        <v>1.016</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -1707,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
@@ -1715,7 +1724,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1724,19 +1733,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>1.393</v>
+        <v>1.494</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1753,7 +1762,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1768,13 +1777,13 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>737</v>
+        <v>924</v>
       </c>
       <c r="I18">
         <v>9</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD8CD7E-33C7-4CBD-8706-BC6A308366EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8EA9FAA-87B6-4038-8679-EF3CF0229CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250912_20250912 (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250913_20250913" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>Collector</t>
   </si>
@@ -58,214 +58,166 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>234,046.00</t>
+  </si>
+  <si>
+    <t>190,650,342.00</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>1,123,165.00</t>
+  </si>
+  <si>
+    <t>151,034,134.00</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>1,249,987.00</t>
+  </si>
+  <si>
+    <t>158,163,068.00</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>706,349.00</t>
+  </si>
+  <si>
+    <t>144,104,643.00</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>678,767.00</t>
+  </si>
+  <si>
+    <t>99,841,865.00</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>937,185.00</t>
-  </si>
-  <si>
-    <t>187,713,893.00</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>200,000.00</t>
+  </si>
+  <si>
+    <t>192,661,552.00</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>156,270,040.00</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>172,276,267.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>135,862,450.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>151,560,437.00</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>162,481,134.00</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>604,330.00</t>
-  </si>
-  <si>
-    <t>149,376,397.00</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>5.37</t>
-  </si>
-  <si>
-    <t>7.14</t>
+    <t>147,555,539.00</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>2,827,991.00</t>
-  </si>
-  <si>
-    <t>144,055,296.00</t>
-  </si>
-  <si>
-    <t>1.96</t>
+    <t>149,841,389.00</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>893,721.00</t>
-  </si>
-  <si>
-    <t>158,804,579.00</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>2,341,266.00</t>
-  </si>
-  <si>
-    <t>148,014,722.00</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>3,904,049.00</t>
-  </si>
-  <si>
-    <t>190,093,711.00</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>424,465.00</t>
-  </si>
-  <si>
-    <t>158,254,585.00</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>100,000.00</t>
-  </si>
-  <si>
-    <t>174,088,684.00</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>2,032,613.00</t>
-  </si>
-  <si>
-    <t>125,834,529.00</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>1,559,407.00</t>
-  </si>
-  <si>
-    <t>148,115,486.00</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>155,770,144.00</t>
+    <t>195,000.00</t>
+  </si>
+  <si>
+    <t>168,949,279.00</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>160,749,114.00</t>
+    <t>150,970,103.00</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>1,788,670.00</t>
-  </si>
-  <si>
-    <t>150,769,292.00</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>2,996,580.00</t>
-  </si>
-  <si>
-    <t>152,115,224.00</t>
-  </si>
-  <si>
-    <t>1.97</t>
+    <t>152,248,724.00</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>371,983.00</t>
-  </si>
-  <si>
-    <t>144,129,713.00</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>89,732.00</t>
-  </si>
-  <si>
-    <t>153,155,827.00</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>101,663,019.00</t>
+    <t>1,018,178.00</t>
+  </si>
+  <si>
+    <t>146,306,782.00</t>
+  </si>
+  <si>
+    <t>0.70</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1061,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1201,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1213,24 +1165,24 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>1.8280000000000001</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1239,19 +1191,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
       <c r="H4">
-        <v>2.1429999999999998</v>
+        <v>50</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1268,7 +1220,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1277,31 +1229,31 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
       <c r="H5">
-        <v>1.3759999999999999</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>15</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1315,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1327,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <v>1.385</v>
+        <v>123</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1353,7 +1305,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -1365,10 +1317,10 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>1.544</v>
+        <v>238</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1391,36 +1343,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>1.165</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>15</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1429,19 +1381,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>785</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1458,7 +1410,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1467,19 +1419,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>1.464</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -1488,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -1496,7 +1448,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1505,22 +1457,22 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>1.167</v>
+        <v>128</v>
       </c>
       <c r="I11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1534,7 +1486,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1549,16 +1501,16 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>1.3009999999999999</v>
+        <v>85</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1572,7 +1524,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1587,16 +1539,16 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>619</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1610,7 +1562,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1619,19 +1571,19 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>15</v>
@@ -1648,7 +1600,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1657,19 +1609,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>4.9379999999999997</v>
+        <v>108</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1686,7 +1638,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1695,36 +1647,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>1.016</v>
+        <v>281</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1733,19 +1685,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>1.494</v>
+        <v>27</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1762,7 +1714,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1771,22 +1723,22 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>924</v>
+        <v>122</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>0</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,54 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8EA9FAA-87B6-4038-8679-EF3CF0229CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6BA58E-3334-458C-A355-F614F2929F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250913_20250913" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250913_20250913 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
-  <si>
-    <t>Collector</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Repayment_collections</t>
-  </si>
-  <si>
-    <t>Repayment_amount</t>
-  </si>
-  <si>
-    <t>Pending Amount</t>
-  </si>
-  <si>
-    <t>Pending Amount Recovery</t>
-  </si>
-  <si>
-    <t>Talk_time</t>
-  </si>
-  <si>
-    <t>New_collections</t>
-  </si>
-  <si>
-    <t>Repayment_new_collections</t>
-  </si>
-  <si>
-    <t>New_collection_amount_rate</t>
-  </si>
-  <si>
-    <t>New_collection_count_rate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+  <si>
+    <t>Collector,Team,Cycle,Repayment_collections,Repayment_amount,Pending</t>
+  </si>
+  <si>
+    <t>Amount,Pending</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Recovery,Talk_time,New_collections,Repayment_new_collections,New_collection_amount_rate,New_collection_count_rate</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
@@ -67,13 +43,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>234,046.00</t>
+    <t>1,919,739.00</t>
   </si>
   <si>
     <t>190,650,342.00</t>
   </si>
   <si>
-    <t>0.12</t>
+    <t>1.01</t>
   </si>
   <si>
     <t>0.00</t>
@@ -82,13 +58,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>1,123,165.00</t>
+    <t>1,607,732.00</t>
   </si>
   <si>
     <t>151,034,134.00</t>
   </si>
   <si>
-    <t>0.74</t>
+    <t>1.06</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -106,16 +82,16 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>706,349.00</t>
+    <t>1,303,645.00</t>
   </si>
   <si>
     <t>144,104,643.00</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>3.14</t>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>5.29</t>
   </si>
   <si>
     <t>6.67</t>
@@ -136,13 +112,16 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>200,000.00</t>
+    <t>1,506,283.00</t>
   </si>
   <si>
     <t>192,661,552.00</t>
   </si>
   <si>
-    <t>0.10</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>1.50</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
@@ -172,9 +151,15 @@
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
+    <t>650,300.00</t>
+  </si>
+  <si>
     <t>162,481,134.00</t>
   </si>
   <si>
+    <t>0.40</t>
+  </si>
+  <si>
     <t>Romli</t>
   </si>
   <si>
@@ -190,16 +175,25 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>195,000.00</t>
+    <t>1,067,224.00</t>
   </si>
   <si>
     <t>168,949,279.00</t>
   </si>
   <si>
+    <t>0.63</t>
+  </si>
+  <si>
     <t>Nur Halim</t>
   </si>
   <si>
+    <t>12,658.00</t>
+  </si>
+  <si>
     <t>150,970,103.00</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
@@ -1079,55 +1073,31 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>122</v>
+        <v>657</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1136,36 +1106,36 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -1174,36 +1144,36 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1212,36 +1182,36 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1250,36 +1220,36 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="I6">
         <v>9</v>
@@ -1288,36 +1258,36 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="I7">
         <v>16</v>
@@ -1326,36 +1296,36 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1364,36 +1334,36 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>517</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1402,33 +1372,33 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1440,36 +1410,36 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1478,36 +1448,36 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="I12">
         <v>15</v>
@@ -1516,36 +1486,36 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1554,36 +1524,36 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14">
         <v>15</v>
@@ -1592,36 +1562,36 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H15">
-        <v>108</v>
+        <v>384</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1630,36 +1600,36 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="H16">
-        <v>281</v>
+        <v>478</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -1668,36 +1638,36 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1706,36 +1676,36 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
       <c r="H18">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1744,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11DA9BB-5CED-4E74-9A53-BF559E3FDBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D9CCFD-E4C4-4788-80D6-C19D42ADABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250913_20250913 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250913_20250913 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>Collector</t>
   </si>
@@ -82,16 +82,19 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>2,590,047.00</t>
+    <t>4,052,238.00</t>
   </si>
   <si>
     <t>151,034,134.00</t>
   </si>
   <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>4.03</t>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>11.28</t>
+  </si>
+  <si>
+    <t>6.67</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -178,13 +181,13 @@
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>650,300.00</t>
+    <t>738,564.00</t>
   </si>
   <si>
     <t>162,481,134.00</t>
   </si>
   <si>
-    <t>0.40</t>
+    <t>0.45</t>
   </si>
   <si>
     <t>Romli</t>
@@ -214,30 +217,33 @@
     <t>5.68</t>
   </si>
   <si>
-    <t>6.67</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>92,658.00</t>
+    <t>192,658.00</t>
   </si>
   <si>
     <t>150,970,103.00</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
     <t>0.13</t>
   </si>
   <si>
+    <t>0.93</t>
+  </si>
+  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
+    <t>588,264.00</t>
+  </si>
+  <si>
     <t>152,248,724.00</t>
   </si>
   <si>
+    <t>0.39</t>
+  </si>
+  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
@@ -248,6 +254,9 @@
   </si>
   <si>
     <t>1.31</t>
+  </si>
+  <si>
+    <t>7.41</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>903</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1183,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1195,24 +1204,24 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>180</v>
+        <v>2.387</v>
       </c>
       <c r="I3">
         <v>15</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1224,16 +1233,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>513</v>
+        <v>982</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1250,7 +1259,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1262,16 +1271,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1280,15 +1289,15 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1300,16 +1309,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="I6">
         <v>9</v>
@@ -1326,7 +1335,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1338,16 +1347,16 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>532</v>
+        <v>894</v>
       </c>
       <c r="I7">
         <v>16</v>
@@ -1356,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1379,13 +1388,13 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8">
-        <v>566</v>
+        <v>688</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1402,7 +1411,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1417,13 +1426,13 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9">
-        <v>874</v>
+        <v>952</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1440,7 +1449,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1455,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1478,7 +1487,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1493,13 +1502,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1516,7 +1525,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1525,19 +1534,19 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="I12">
         <v>15</v>
@@ -1554,7 +1563,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1569,13 +1578,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>466</v>
+        <v>809</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1592,7 +1601,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1607,13 +1616,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="I14">
         <v>15</v>
@@ -1630,7 +1639,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1642,16 +1651,16 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15">
-        <v>472</v>
+        <v>668</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1660,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1677,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>66</v>
@@ -1695,13 +1704,13 @@
         <v>15</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1715,19 +1724,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="H17">
-        <v>465</v>
+        <v>588</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1744,7 +1753,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1756,16 +1765,16 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18">
-        <v>451</v>
+        <v>547</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1774,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D9CCFD-E4C4-4788-80D6-C19D42ADABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EE12BA-621E-4351-8782-2CCAE9E317D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250913_20250913 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Collector</t>
   </si>
@@ -58,205 +58,79 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>111,052.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>1,263,033.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>584,472.00</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>694,228.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>171,604.00</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>1,919,739.00</t>
-  </si>
-  <si>
-    <t>190,650,342.00</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>Riska Nurlita</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>4,052,238.00</t>
-  </si>
-  <si>
-    <t>151,034,134.00</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>11.28</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>1,249,987.00</t>
-  </si>
-  <si>
-    <t>158,163,068.00</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>1,303,645.00</t>
-  </si>
-  <si>
-    <t>144,104,643.00</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>8.35</t>
-  </si>
-  <si>
-    <t>13.33</t>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>678,767.00</t>
-  </si>
-  <si>
-    <t>99,841,865.00</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>1,506,283.00</t>
-  </si>
-  <si>
-    <t>192,661,552.00</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>156,270,040.00</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>172,276,267.00</t>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>135,862,450.00</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>151,560,437.00</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>738,564.00</t>
-  </si>
-  <si>
-    <t>162,481,134.00</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>147,555,539.00</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>149,841,389.00</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>1,067,224.00</t>
-  </si>
-  <si>
-    <t>168,949,279.00</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>5.68</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>192,658.00</t>
-  </si>
-  <si>
-    <t>150,970,103.00</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
     <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>588,264.00</t>
-  </si>
-  <si>
-    <t>152,248,724.00</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>1,909,597.00</t>
-  </si>
-  <si>
-    <t>146,306,782.00</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>7.41</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +974,13 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1154,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1162,28 +1039,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.0940000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1192,36 +1069,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.387</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1230,36 +1107,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1268,36 +1145,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1309,484 +1186,88 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7">
-        <v>894</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>688</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>952</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <v>410</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12">
-        <v>219</v>
-      </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>809</v>
-      </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14">
-        <v>849</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15">
-        <v>668</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16">
-        <v>629</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17">
-        <v>588</v>
-      </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18">
-        <v>547</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EE12BA-621E-4351-8782-2CCAE9E317D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{034750E6-3CDD-404A-8C59-DCC5B9A503AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>Collector</t>
   </si>
@@ -70,6 +70,12 @@
     <t>111,052.00</t>
   </si>
   <si>
+    <t>152,756,319.00</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -79,10 +85,28 @@
     <t>1,263,033.00</t>
   </si>
   <si>
+    <t>154,623,204.00</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>584,472.00</t>
+    <t>1,338,658.00</t>
+  </si>
+  <si>
+    <t>165,315,899.00</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>3.23</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -91,46 +115,103 @@
     <t>694,228.00</t>
   </si>
   <si>
+    <t>177,262,913.00</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
     <t>171,604.00</t>
   </si>
   <si>
+    <t>135,668,739.00</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>250,000.00</t>
+  </si>
+  <si>
+    <t>158,909,624.00</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>189,262,708.00</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
+    <t>188,820,046.00</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>169,414,614.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>141,783,420.00</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>159,429,687.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>159,722,649.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>167,648,305.00</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>147,300,218.00</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
+    <t>128,778,744.00</t>
+  </si>
+  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
+    <t>156,369,189.00</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
+    <t>101,118,374.00</t>
   </si>
 </sst>
 </file>
@@ -974,13 +1055,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1039,28 +1117,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1072,33 +1150,33 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1107,36 +1185,36 @@
         <v>14</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>212</v>
+      </c>
+      <c r="I4">
+        <v>31</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1148,33 +1226,33 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1186,88 +1264,484 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>339</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>655</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>337</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>168</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>275</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>320</v>
+      </c>
+      <c r="I12">
         <v>30</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>777</v>
+      </c>
+      <c r="I13">
         <v>31</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>161</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>245</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>157</v>
+      </c>
+      <c r="I17">
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="I18">
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{034750E6-3CDD-404A-8C59-DCC5B9A503AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24BD201-C1CC-43B7-A553-6FAC09E03758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>Collector</t>
   </si>
@@ -151,7 +151,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>595,048.00</t>
+  </si>
+  <si>
     <t>189,262,708.00</t>
+  </si>
+  <si>
+    <t>0.31</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
@@ -1337,16 +1343,16 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>655</v>
@@ -1366,7 +1372,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1381,7 +1387,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1419,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1457,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -1480,7 +1486,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1495,7 +1501,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -1518,7 +1524,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1533,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1571,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1609,7 +1615,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1632,7 +1638,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1647,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1670,7 +1676,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1685,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1723,7 +1729,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24BD201-C1CC-43B7-A553-6FAC09E03758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{247766E9-6FAD-4219-AE23-D0D3091876E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>Collector</t>
   </si>
@@ -151,13 +151,16 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>595,048.00</t>
+    <t>885,787.00</t>
   </si>
   <si>
     <t>189,262,708.00</t>
   </si>
   <si>
-    <t>0.31</t>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>3.33</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
@@ -169,9 +172,15 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
+    <t>311,014.00</t>
+  </si>
+  <si>
     <t>169,414,614.00</t>
   </si>
   <si>
+    <t>0.18</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
@@ -187,9 +196,15 @@
     <t>Romli</t>
   </si>
   <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
     <t>159,722,649.00</t>
   </si>
   <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
@@ -205,7 +220,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
+    <t>982,315.00</t>
+  </si>
+  <si>
     <t>128,778,744.00</t>
+  </si>
+  <si>
+    <t>0.76</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -1127,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="I2">
         <v>30</v>
@@ -1165,7 +1186,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="I3">
         <v>31</v>
@@ -1203,7 +1224,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>212</v>
+        <v>537</v>
       </c>
       <c r="I4">
         <v>31</v>
@@ -1241,7 +1262,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>527</v>
+        <v>617</v>
       </c>
       <c r="I5">
         <v>30</v>
@@ -1279,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <v>386</v>
+        <v>597</v>
       </c>
       <c r="I6">
         <v>30</v>
@@ -1317,7 +1338,7 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>339</v>
+        <v>443</v>
       </c>
       <c r="I7">
         <v>29</v>
@@ -1343,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -1355,24 +1376,24 @@
         <v>45</v>
       </c>
       <c r="H8">
-        <v>655</v>
+        <v>922</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1387,13 +1408,13 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -1410,7 +1431,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1419,19 +1440,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="I10">
         <v>31</v>
@@ -1448,7 +1469,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1463,13 +1484,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -1486,7 +1507,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1501,13 +1522,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>320</v>
+        <v>596</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -1524,7 +1545,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1533,19 +1554,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>777</v>
+        <v>931</v>
       </c>
       <c r="I13">
         <v>31</v>
@@ -1562,7 +1583,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1577,13 +1598,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I14">
         <v>30</v>
@@ -1600,7 +1621,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1615,13 +1636,13 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="I15">
         <v>31</v>
@@ -1638,7 +1659,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1647,19 +1668,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="I16">
         <v>30</v>
@@ -1676,7 +1697,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1691,13 +1712,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
-        <v>157</v>
+        <v>514</v>
       </c>
       <c r="I17">
         <v>31</v>
@@ -1714,7 +1735,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1729,13 +1750,13 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>1.1579999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I18">
         <v>19</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{247766E9-6FAD-4219-AE23-D0D3091876E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{376B314B-5AB0-47C3-B9DC-F7405B3D8A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>111,052.00</t>
+    <t>554,687.00</t>
   </si>
   <si>
     <t>152,756,319.00</t>
   </si>
   <si>
-    <t>0.07</t>
+    <t>0.36</t>
   </si>
   <si>
     <t>0.00</t>
@@ -94,19 +94,19 @@
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>1,338,658.00</t>
+    <t>5,841,430.00</t>
   </si>
   <si>
     <t>165,315,899.00</t>
   </si>
   <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>3.23</t>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>13.54</t>
+  </si>
+  <si>
+    <t>6.45</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -160,25 +160,34 @@
     <t>0.47</t>
   </si>
   <si>
+    <t>1.51</t>
+  </si>
+  <si>
     <t>3.33</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
+    <t>484,839.00</t>
+  </si>
+  <si>
     <t>188,820,046.00</t>
   </si>
   <si>
+    <t>0.26</t>
+  </si>
+  <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>311,014.00</t>
+    <t>529,441.00</t>
   </si>
   <si>
     <t>169,414,614.00</t>
   </si>
   <si>
-    <t>0.18</t>
+    <t>0.31</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
@@ -220,13 +229,19 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>982,315.00</t>
+    <t>2,014,658.00</t>
   </si>
   <si>
     <t>128,778,744.00</t>
   </si>
   <si>
-    <t>0.76</t>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>10.00</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -238,7 +253,13 @@
     <t>Nuraini</t>
   </si>
   <si>
+    <t>924,590.00</t>
+  </si>
+  <si>
     <t>101,118,374.00</t>
+  </si>
+  <si>
+    <t>0.91</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1148,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="I2">
         <v>30</v>
@@ -1186,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>217</v>
+        <v>380</v>
       </c>
       <c r="I3">
         <v>31</v>
@@ -1212,7 +1233,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1224,13 +1245,13 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>537</v>
+        <v>870</v>
       </c>
       <c r="I4">
         <v>31</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
@@ -1262,7 +1283,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>617</v>
+        <v>1.107</v>
       </c>
       <c r="I5">
         <v>30</v>
@@ -1300,7 +1321,7 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <v>597</v>
+        <v>992</v>
       </c>
       <c r="I6">
         <v>30</v>
@@ -1338,7 +1359,7 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="I7">
         <v>29</v>
@@ -1376,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="H8">
-        <v>922</v>
+        <v>947</v>
       </c>
       <c r="I8">
         <v>30</v>
@@ -1385,15 +1406,15 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1402,19 +1423,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -1431,7 +1452,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1440,19 +1461,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="I10">
         <v>31</v>
@@ -1469,7 +1490,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1484,13 +1505,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>367</v>
+        <v>690</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -1507,7 +1528,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1522,13 +1543,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>596</v>
+        <v>897</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -1545,7 +1566,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1557,16 +1578,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13">
-        <v>931</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="I13">
         <v>31</v>
@@ -1583,7 +1604,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1598,13 +1619,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>412</v>
       </c>
       <c r="I14">
         <v>30</v>
@@ -1621,7 +1642,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1636,13 +1657,13 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15">
-        <v>361</v>
+        <v>465</v>
       </c>
       <c r="I15">
         <v>31</v>
@@ -1659,7 +1680,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1668,36 +1689,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H16">
-        <v>381</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="I16">
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1712,13 +1733,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
-        <v>514</v>
+        <v>694</v>
       </c>
       <c r="I17">
         <v>31</v>
@@ -1735,7 +1756,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1744,19 +1765,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="H18">
-        <v>1.4</v>
+        <v>1.665</v>
       </c>
       <c r="I18">
         <v>19</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{376B314B-5AB0-47C3-B9DC-F7405B3D8A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7814B3C7-7A04-46A8-ACF0-C77582C33FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (6)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>554,687.00</t>
+    <t>1,044,908.00</t>
   </si>
   <si>
     <t>152,756,319.00</t>
   </si>
   <si>
-    <t>0.36</t>
+    <t>0.68</t>
   </si>
   <si>
     <t>0.00</t>
@@ -82,13 +82,13 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>1,263,033.00</t>
+    <t>1,675,977.00</t>
   </si>
   <si>
     <t>154,623,204.00</t>
   </si>
   <si>
-    <t>0.82</t>
+    <t>1.08</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
@@ -124,13 +124,13 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>171,604.00</t>
+    <t>1,218,637.00</t>
   </si>
   <si>
     <t>135,668,739.00</t>
   </si>
   <si>
-    <t>0.13</t>
+    <t>0.90</t>
   </si>
   <si>
     <t>Nur Halim</t>
@@ -169,13 +169,13 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>484,839.00</t>
+    <t>834,007.00</t>
   </si>
   <si>
     <t>188,820,046.00</t>
   </si>
   <si>
-    <t>0.26</t>
+    <t>0.44</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
@@ -229,13 +229,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>2,014,658.00</t>
+    <t>2,234,658.00</t>
   </si>
   <si>
     <t>128,778,744.00</t>
   </si>
   <si>
-    <t>1.56</t>
+    <t>1.74</t>
   </si>
   <si>
     <t>7.37</t>
@@ -1157,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1309,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1423,7 +1423,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -1689,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7814B3C7-7A04-46A8-ACF0-C77582C33FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B365ED5A-6342-464E-ACDD-0E894101F71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (6)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (7)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B365ED5A-6342-464E-ACDD-0E894101F71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A793C4-7514-45C1-9602-014C3CEEAB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (7)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (8)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -136,13 +136,13 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>250,000.00</t>
+    <t>9,708,792.00</t>
   </si>
   <si>
     <t>158,909,624.00</t>
   </si>
   <si>
-    <t>0.16</t>
+    <t>6.11</t>
   </si>
   <si>
     <t>0.85</t>
@@ -151,13 +151,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>885,787.00</t>
+    <t>1,572,099.00</t>
   </si>
   <si>
     <t>189,262,708.00</t>
   </si>
   <si>
-    <t>0.47</t>
+    <t>0.83</t>
   </si>
   <si>
     <t>1.51</t>
@@ -229,13 +229,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>2,234,658.00</t>
+    <t>2,335,019.00</t>
   </si>
   <si>
     <t>128,778,744.00</t>
   </si>
   <si>
-    <t>1.74</t>
+    <t>1.81</t>
   </si>
   <si>
     <t>7.37</t>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -1385,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -1689,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A793C4-7514-45C1-9602-014C3CEEAB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A757EA-1E9B-4C5B-9B4D-7389A65A6A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (8)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250915_20250915 (9)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>Collector</t>
   </si>
@@ -67,60 +67,72 @@
     <t>S2</t>
   </si>
   <si>
-    <t>1,044,908.00</t>
+    <t>5,931,659.00</t>
   </si>
   <si>
     <t>152,756,319.00</t>
   </si>
   <si>
-    <t>0.68</t>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>14.95</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>1,675,977.00</t>
+  </si>
+  <si>
+    <t>154,623,204.00</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>6,222,867.00</t>
+  </si>
+  <si>
+    <t>165,315,899.00</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>13.54</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>694,228.00</t>
+  </si>
+  <si>
+    <t>177,262,913.00</t>
+  </si>
+  <si>
+    <t>0.39</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>1,675,977.00</t>
-  </si>
-  <si>
-    <t>154,623,204.00</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>5,841,430.00</t>
-  </si>
-  <si>
-    <t>165,315,899.00</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>13.54</t>
-  </si>
-  <si>
-    <t>6.45</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>694,228.00</t>
-  </si>
-  <si>
-    <t>177,262,913.00</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
@@ -136,16 +148,19 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>9,708,792.00</t>
+    <t>15,512,899.00</t>
   </si>
   <si>
     <t>158,909,624.00</t>
   </si>
   <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>0.85</t>
+    <t>9.76</t>
+  </si>
+  <si>
+    <t>34.81</t>
+  </si>
+  <si>
+    <t>3.45</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
@@ -169,27 +184,27 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>834,007.00</t>
+    <t>884,007.00</t>
   </si>
   <si>
     <t>188,820,046.00</t>
   </si>
   <si>
-    <t>0.44</t>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.26</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>529,441.00</t>
+    <t>3,042,819.00</t>
   </si>
   <si>
     <t>169,414,614.00</t>
   </si>
   <si>
-    <t>0.31</t>
-  </si>
-  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
@@ -205,13 +220,13 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>50,000.00</t>
+    <t>722,243.00</t>
   </si>
   <si>
     <t>159,722,649.00</t>
   </si>
   <si>
-    <t>0.03</t>
+    <t>0.45</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
@@ -223,25 +238,34 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
+    <t>628,614.00</t>
+  </si>
+  <si>
     <t>147,300,218.00</t>
   </si>
   <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>2,335,019.00</t>
+    <t>2,733,557.00</t>
   </si>
   <si>
     <t>128,778,744.00</t>
   </si>
   <si>
-    <t>1.81</t>
-  </si>
-  <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>10.00</t>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>12.86</t>
+  </si>
+  <si>
+    <t>13.33</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -1157,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1169,24 +1193,24 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>376</v>
+        <v>667</v>
       </c>
       <c r="I2">
         <v>30</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1198,33 +1222,33 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="I3">
         <v>31</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1233,19 +1257,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>870</v>
+        <v>1.631</v>
       </c>
       <c r="I4">
         <v>31</v>
@@ -1254,15 +1278,15 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1274,16 +1298,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1.107</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="I5">
         <v>30</v>
@@ -1292,15 +1316,15 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1312,16 +1336,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>992</v>
+        <v>1.17</v>
       </c>
       <c r="I6">
         <v>30</v>
@@ -1330,15 +1354,15 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1347,36 +1371,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="I7">
         <v>29</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1388,16 +1412,16 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>947</v>
+        <v>1.647</v>
       </c>
       <c r="I8">
         <v>30</v>
@@ -1406,15 +1430,15 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1423,19 +1447,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9">
-        <v>473</v>
+        <v>822</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -1444,15 +1468,15 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1461,19 +1485,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>396</v>
+        <v>755</v>
       </c>
       <c r="I10">
         <v>31</v>
@@ -1482,15 +1506,15 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1502,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>690</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -1520,15 +1544,15 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1540,16 +1564,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>897</v>
+        <v>1.329</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -1558,15 +1582,15 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1575,19 +1599,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H13">
-        <v>1.0569999999999999</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="I13">
         <v>31</v>
@@ -1596,15 +1620,15 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1616,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>412</v>
+        <v>780</v>
       </c>
       <c r="I14">
         <v>30</v>
@@ -1634,15 +1658,15 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1651,36 +1675,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H15">
-        <v>465</v>
+        <v>651</v>
       </c>
       <c r="I15">
         <v>31</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1689,36 +1713,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H16">
-        <v>1.1140000000000001</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="I16">
         <v>30</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1730,16 +1754,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>694</v>
+        <v>949</v>
       </c>
       <c r="I17">
         <v>31</v>
@@ -1748,15 +1772,15 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1768,16 +1792,16 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18">
-        <v>1.665</v>
+        <v>1.905</v>
       </c>
       <c r="I18">
         <v>19</v>
@@ -1786,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A757EA-1E9B-4C5B-9B4D-7389A65A6A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA43C1A-F7ED-4EE1-9E63-50D2397DCBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250915_20250915 (9)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250916_20250916" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Collector</t>
   </si>
@@ -58,232 +58,82 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>2,241,366.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>301,518.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>988,030.00</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>75,000.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>262,439.00</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>1,237,616.00</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>5,931,659.00</t>
-  </si>
-  <si>
-    <t>152,756,319.00</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>14.95</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>1,675,977.00</t>
-  </si>
-  <si>
-    <t>154,623,204.00</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>3.23</t>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>6,222,867.00</t>
-  </si>
-  <si>
-    <t>165,315,899.00</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>13.54</t>
-  </si>
-  <si>
-    <t>6.45</t>
+    <t>Romli</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>694,228.00</t>
-  </si>
-  <si>
-    <t>177,262,913.00</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>1,218,637.00</t>
-  </si>
-  <si>
-    <t>135,668,739.00</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>15,512,899.00</t>
-  </si>
-  <si>
-    <t>158,909,624.00</t>
-  </si>
-  <si>
-    <t>9.76</t>
-  </si>
-  <si>
-    <t>34.81</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>1,572,099.00</t>
-  </si>
-  <si>
-    <t>189,262,708.00</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>884,007.00</t>
-  </si>
-  <si>
-    <t>188,820,046.00</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>3,042,819.00</t>
-  </si>
-  <si>
-    <t>169,414,614.00</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>141,783,420.00</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>159,429,687.00</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>722,243.00</t>
-  </si>
-  <si>
-    <t>159,722,649.00</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>167,648,305.00</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>628,614.00</t>
-  </si>
-  <si>
-    <t>147,300,218.00</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>2,733,557.00</t>
-  </si>
-  <si>
-    <t>128,778,744.00</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>12.86</t>
-  </si>
-  <si>
-    <t>13.33</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>156,369,189.00</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>924,590.00</t>
-  </si>
-  <si>
-    <t>101,118,374.00</t>
-  </si>
-  <si>
-    <t>0.91</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +977,13 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1181,7 +1034,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1189,28 +1042,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1219,36 +1072,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1257,36 +1110,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.631</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1298,33 +1151,33 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.1830000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1333,36 +1186,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1371,449 +1224,86 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>1.647</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9">
-        <v>822</v>
-      </c>
-      <c r="I9">
-        <v>30</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>755</v>
-      </c>
-      <c r="I10">
-        <v>31</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="I11">
         <v>30</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12">
-        <v>1.329</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="I13">
-        <v>31</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14">
-        <v>780</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15">
-        <v>651</v>
-      </c>
-      <c r="I15">
-        <v>31</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="I16">
-        <v>30</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17">
-        <v>949</v>
-      </c>
-      <c r="I17">
-        <v>31</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18">
-        <v>1.905</v>
-      </c>
-      <c r="I18">
-        <v>19</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA43C1A-F7ED-4EE1-9E63-50D2397DCBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC137046-91E3-4C09-ADF8-4F508090A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250916_20250916" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250916_20250916 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>Collector</t>
   </si>
@@ -70,6 +70,12 @@
     <t>2,241,366.00</t>
   </si>
   <si>
+    <t>158,633,067.00</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -79,22 +85,58 @@
     <t>301,518.00</t>
   </si>
   <si>
+    <t>140,905,074.00</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
     <t>988,030.00</t>
   </si>
   <si>
+    <t>112,590,060.00</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>10.29</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>75,000.00</t>
+    <t>375,000.00</t>
+  </si>
+  <si>
+    <t>145,384,324.00</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.90</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>262,439.00</t>
+    <t>655,683.00</t>
+  </si>
+  <si>
+    <t>151,331,741.00</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>3.17</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
@@ -103,37 +145,94 @@
     <t>1,237,616.00</t>
   </si>
   <si>
+    <t>175,179,262.00</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>292,435.00</t>
+  </si>
+  <si>
+    <t>179,487,985.00</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>186,099,111.00</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
+    <t>220,425.00</t>
+  </si>
+  <si>
+    <t>188,817,452.00</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>166,650,859.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>113,166,920.00</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
+    <t>154,603,507.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>163,146,299.00</t>
+  </si>
+  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
+    <t>410,638.00</t>
+  </si>
+  <si>
+    <t>153,419,149.00</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>142,201,981.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>123,481,323.00</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
+    <t>102,605,709.00</t>
   </si>
 </sst>
 </file>
@@ -977,13 +1076,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1042,28 +1138,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1075,33 +1171,33 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1113,33 +1209,33 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1148,36 +1244,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1186,36 +1282,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1227,83 +1323,446 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>158</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>186</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>248</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>711</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>134</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>241</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC137046-91E3-4C09-ADF8-4F508090A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D67994-6BE7-4620-801E-A8B2522A11E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250916_20250916 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250916_20250916 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Collector</t>
   </si>
@@ -94,13 +94,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>988,030.00</t>
+    <t>1,361,535.00</t>
   </si>
   <si>
     <t>112,590,060.00</t>
   </si>
   <si>
-    <t>0.88</t>
+    <t>1.21</t>
   </si>
   <si>
     <t>10.29</t>
@@ -112,43 +112,43 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>375,000.00</t>
+    <t>655,679.00</t>
   </si>
   <si>
     <t>145,384,324.00</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.90</t>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>4.11</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>655,683.00</t>
+    <t>879,326.00</t>
   </si>
   <si>
     <t>151,331,741.00</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>3.17</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>4.88</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>1,237,616.00</t>
+    <t>3,553,312.00</t>
   </si>
   <si>
     <t>175,179,262.00</t>
   </si>
   <si>
-    <t>0.71</t>
+    <t>2.03</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -166,9 +166,15 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>372,741.00</t>
+  </si>
+  <si>
     <t>186,099,111.00</t>
   </si>
   <si>
+    <t>0.20</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
@@ -217,10 +223,22 @@
     <t>0.27</t>
   </si>
   <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
     <t>Nur Halim</t>
   </si>
   <si>
+    <t>540,778.00</t>
+  </si>
+  <si>
     <t>142,201,981.00</t>
+  </si>
+  <si>
+    <t>0.38</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
@@ -1142,7 +1160,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>659</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1180,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -1206,7 +1224,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1218,7 +1236,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>151</v>
+        <v>534</v>
       </c>
       <c r="I4">
         <v>14</v>
@@ -1244,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1256,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -1282,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -1294,19 +1312,19 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="I6">
         <v>14</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1320,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -1332,7 +1350,7 @@
         <v>42</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1370,7 +1388,7 @@
         <v>46</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="I8">
         <v>14</v>
@@ -1396,19 +1414,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="I9">
         <v>14</v>
@@ -1425,7 +1443,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1437,16 +1455,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1463,7 +1481,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1478,13 +1496,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>186</v>
+        <v>403</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1501,7 +1519,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1516,13 +1534,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -1539,7 +1557,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1554,13 +1572,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1577,7 +1595,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1592,13 +1610,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14">
-        <v>248</v>
+        <v>347</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1615,7 +1633,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1627,33 +1645,33 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H15">
-        <v>711</v>
+        <v>960</v>
       </c>
       <c r="I15">
         <v>15</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1662,19 +1680,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H16">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1691,7 +1709,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1706,7 +1724,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1729,7 +1747,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1744,13 +1762,13 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="I18">
         <v>14</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D67994-6BE7-4620-801E-A8B2522A11E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A11CEA-8228-41CB-ACD7-DB88B04E6709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250916_20250916 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250916_20250916" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>2,241,366.00</t>
+    <t>2,991,200.00</t>
   </si>
   <si>
     <t>158,633,067.00</t>
   </si>
   <si>
-    <t>1.41</t>
+    <t>1.89</t>
   </si>
   <si>
     <t>0.00</t>
@@ -142,13 +142,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>3,553,312.00</t>
+    <t>6,511,624.00</t>
   </si>
   <si>
     <t>175,179,262.00</t>
   </si>
   <si>
-    <t>2.03</t>
+    <t>3.72</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -175,6 +175,9 @@
     <t>0.20</t>
   </si>
   <si>
+    <t>4.59</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
@@ -232,13 +235,16 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>540,778.00</t>
+    <t>1,729,613.00</t>
   </si>
   <si>
     <t>142,201,981.00</t>
   </si>
   <si>
-    <t>0.38</t>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>5.16</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
@@ -1148,7 +1154,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1160,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>1.1319999999999999</v>
+        <v>1.409</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1198,7 +1204,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -1236,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="I4">
         <v>14</v>
@@ -1274,7 +1280,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -1312,7 +1318,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <v>282</v>
+        <v>410</v>
       </c>
       <c r="I6">
         <v>14</v>
@@ -1338,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -1350,7 +1356,7 @@
         <v>42</v>
       </c>
       <c r="H7">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1388,7 +1394,7 @@
         <v>46</v>
       </c>
       <c r="H8">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="I8">
         <v>14</v>
@@ -1426,24 +1432,24 @@
         <v>50</v>
       </c>
       <c r="H9">
-        <v>501</v>
+        <v>639</v>
       </c>
       <c r="I9">
         <v>14</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1455,16 +1461,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1496,13 +1502,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>403</v>
+        <v>700</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1519,7 +1525,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1534,13 +1540,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>253</v>
+        <v>442</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -1557,7 +1563,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1572,13 +1578,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1595,7 +1601,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1610,13 +1616,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14">
-        <v>347</v>
+        <v>786</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1633,7 +1639,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1645,16 +1651,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15">
-        <v>960</v>
+        <v>1.179</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1663,15 +1669,15 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1680,19 +1686,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1701,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1724,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1762,7 +1768,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A11CEA-8228-41CB-ACD7-DB88B04E6709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59974C4-D574-450F-ABFF-B909A145AF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250916_20250916" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250916_20250916 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>Collector</t>
   </si>
@@ -82,25 +82,31 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>301,518.00</t>
+    <t>933,219.00</t>
   </si>
   <si>
     <t>140,905,074.00</t>
   </si>
   <si>
-    <t>0.21</t>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>6.67</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>1,361,535.00</t>
+    <t>2,285,432.00</t>
   </si>
   <si>
     <t>112,590,060.00</t>
   </si>
   <si>
-    <t>1.21</t>
+    <t>2.03</t>
   </si>
   <si>
     <t>10.29</t>
@@ -166,13 +172,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>372,741.00</t>
+    <t>1,090,717.00</t>
   </si>
   <si>
     <t>186,099,111.00</t>
   </si>
   <si>
-    <t>0.20</t>
+    <t>0.59</t>
   </si>
   <si>
     <t>4.59</t>
@@ -181,27 +187,42 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>220,425.00</t>
+    <t>2,306,580.00</t>
   </si>
   <si>
     <t>188,817,452.00</t>
   </si>
   <si>
-    <t>0.12</t>
+    <t>1.22</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
+    <t>300,000.00</t>
+  </si>
+  <si>
     <t>166,650,859.00</t>
   </si>
   <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
+    <t>587,668.00</t>
+  </si>
+  <si>
     <t>113,166,920.00</t>
   </si>
   <si>
+    <t>0.52</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
@@ -229,9 +250,6 @@
     <t>4.15</t>
   </si>
   <si>
-    <t>6.67</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
@@ -239,9 +257,6 @@
   </si>
   <si>
     <t>142,201,981.00</t>
-  </si>
-  <si>
-    <t>1.22</t>
   </si>
   <si>
     <t>5.16</t>
@@ -1166,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>1.409</v>
+        <v>1.5569999999999999</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1192,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1204,24 +1219,24 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>477</v>
+        <v>822</v>
       </c>
       <c r="I3">
         <v>15</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1230,19 +1245,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>550</v>
+        <v>688</v>
       </c>
       <c r="I4">
         <v>14</v>
@@ -1251,15 +1266,15 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1271,16 +1286,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>470</v>
+        <v>721</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -1289,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -1297,7 +1312,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1309,16 +1324,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>410</v>
+        <v>603</v>
       </c>
       <c r="I6">
         <v>14</v>
@@ -1327,15 +1342,15 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1347,16 +1362,16 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>152</v>
+        <v>427</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1373,7 +1388,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1385,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>233</v>
+        <v>405</v>
       </c>
       <c r="I8">
         <v>14</v>
@@ -1411,7 +1426,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1420,19 +1435,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>639</v>
+        <v>1.42</v>
       </c>
       <c r="I9">
         <v>14</v>
@@ -1441,15 +1456,15 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1458,19 +1473,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10">
-        <v>419</v>
+        <v>552</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1487,7 +1502,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1496,19 +1511,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="H11">
-        <v>700</v>
+        <v>825</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1517,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
@@ -1525,7 +1540,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1534,19 +1549,19 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H12">
-        <v>442</v>
+        <v>845</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -1563,7 +1578,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1578,13 +1593,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>216</v>
+        <v>417</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1601,7 +1616,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1616,13 +1631,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14">
-        <v>786</v>
+        <v>1.42</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1639,7 +1654,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1651,16 +1666,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H15">
-        <v>1.179</v>
+        <v>1.268</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1669,15 +1684,15 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1689,16 +1704,16 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H16">
-        <v>448</v>
+        <v>629</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1707,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1715,7 +1730,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1730,7 +1745,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1753,7 +1768,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1768,13 +1783,13 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="I18">
         <v>14</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59974C4-D574-450F-ABFF-B909A145AF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2725F17B-4D3E-49CE-B2A8-B2E9C40B5131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250916_20250916 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250917_20250917 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>Collector</t>
   </si>
@@ -58,220 +58,184 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>1,308,478.00</t>
+  </si>
+  <si>
+    <t>185,707,932.00</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>13.33</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>1,066,209.00</t>
+  </si>
+  <si>
+    <t>155,461,518.00</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>9.08</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>1,212,337.00</t>
+  </si>
+  <si>
+    <t>116,749,122.00</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>260,919.00</t>
+  </si>
+  <si>
+    <t>183,235,803.00</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>104,105.00</t>
+  </si>
+  <si>
+    <t>174,752,101.00</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>166,858,194.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>123,596,522.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>154,877,453.00</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>2,991,200.00</t>
-  </si>
-  <si>
-    <t>158,633,067.00</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>158,243,116.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>165,267,372.00</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>175,882,272.00</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>606,835.00</t>
+  </si>
+  <si>
+    <t>140,684,517.00</t>
+  </si>
+  <si>
+    <t>0.43</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>933,219.00</t>
-  </si>
-  <si>
-    <t>140,905,074.00</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>2,285,432.00</t>
-  </si>
-  <si>
-    <t>112,590,060.00</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>7.14</t>
+    <t>790,295.00</t>
+  </si>
+  <si>
+    <t>140,803,918.00</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>125,081,321.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>141,959,243.00</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>655,679.00</t>
-  </si>
-  <si>
-    <t>145,384,324.00</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>879,326.00</t>
-  </si>
-  <si>
-    <t>151,331,741.00</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>4.88</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>6,511,624.00</t>
-  </si>
-  <si>
-    <t>175,179,262.00</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>292,435.00</t>
-  </si>
-  <si>
-    <t>179,487,985.00</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>1,090,717.00</t>
-  </si>
-  <si>
-    <t>186,099,111.00</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>2,306,580.00</t>
-  </si>
-  <si>
-    <t>188,817,452.00</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>300,000.00</t>
-  </si>
-  <si>
-    <t>166,650,859.00</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>587,668.00</t>
-  </si>
-  <si>
-    <t>113,166,920.00</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>154,603,507.00</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>163,146,299.00</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>410,638.00</t>
-  </si>
-  <si>
-    <t>153,419,149.00</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>1,729,613.00</t>
-  </si>
-  <si>
-    <t>142,201,981.00</t>
-  </si>
-  <si>
-    <t>5.16</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>123,481,323.00</t>
+    <t>590,930.00</t>
+  </si>
+  <si>
+    <t>146,114,468.00</t>
+  </si>
+  <si>
+    <t>0.40</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>102,605,709.00</t>
+    <t>448,723.00</t>
+  </si>
+  <si>
+    <t>101,641,209.00</t>
+  </si>
+  <si>
+    <t>0.44</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1181,24 +1145,24 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>1.5569999999999999</v>
+        <v>191</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1210,16 +1174,16 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>822</v>
+        <v>320</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -1228,15 +1192,15 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1245,31 +1209,31 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>688</v>
+        <v>41</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1283,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1295,10 +1259,10 @@
         <v>34</v>
       </c>
       <c r="H5">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1307,7 +1271,7 @@
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1321,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1333,24 +1297,24 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1359,19 +1323,19 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1380,15 +1344,15 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1397,36 +1361,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1435,36 +1399,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>1.42</v>
+        <v>366</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1473,36 +1437,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>552</v>
+        <v>795</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1511,36 +1475,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>825</v>
+        <v>1.121</v>
       </c>
       <c r="I11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1549,36 +1513,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="I12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1587,36 +1551,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H13">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1625,36 +1589,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H14">
-        <v>1.42</v>
+        <v>350</v>
       </c>
       <c r="I14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1663,36 +1627,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>1.268</v>
+        <v>755</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1701,36 +1665,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>629</v>
+        <v>240</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1739,36 +1703,36 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="I17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1777,31 +1741,31 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="H18">
-        <v>328</v>
+        <v>1.071</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2725F17B-4D3E-49CE-B2A8-B2E9C40B5131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D18AEAA-C4CC-4085-B253-07CB39B389FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250917_20250917 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250917_20250917 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>1,308,478.00</t>
+    <t>1,866,953.00</t>
   </si>
   <si>
     <t>185,707,932.00</t>
   </si>
   <si>
-    <t>0.70</t>
+    <t>1.01</t>
   </si>
   <si>
     <t>4.25</t>
@@ -85,13 +85,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>1,066,209.00</t>
+    <t>1,275,294.00</t>
   </si>
   <si>
     <t>155,461,518.00</t>
   </si>
   <si>
-    <t>0.69</t>
+    <t>0.82</t>
   </si>
   <si>
     <t>9.08</t>
@@ -103,16 +103,19 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>1,212,337.00</t>
+    <t>1,262,337.00</t>
   </si>
   <si>
     <t>116,749,122.00</t>
   </si>
   <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>7.08</t>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>10.85</t>
+  </si>
+  <si>
+    <t>20.00</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
@@ -127,39 +130,66 @@
     <t>0.14</t>
   </si>
   <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>104,105.00</t>
+  </si>
+  <si>
+    <t>174,752,101.00</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>104,105.00</t>
-  </si>
-  <si>
-    <t>174,752,101.00</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
+    <t>490,159.00</t>
+  </si>
+  <si>
     <t>166,858,194.00</t>
   </si>
   <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
+    <t>875,611.00</t>
+  </si>
+  <si>
     <t>123,596,522.00</t>
   </si>
   <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
+    <t>400,000.00</t>
+  </si>
+  <si>
     <t>154,877,453.00</t>
   </si>
   <si>
+    <t>0.26</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
@@ -193,13 +223,16 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>790,295.00</t>
+    <t>1,081,034.00</t>
   </si>
   <si>
     <t>140,803,918.00</t>
   </si>
   <si>
-    <t>0.56</t>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>9.37</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
@@ -217,13 +250,13 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>590,930.00</t>
+    <t>1,501,952.00</t>
   </si>
   <si>
     <t>146,114,468.00</t>
   </si>
   <si>
-    <t>0.40</t>
+    <t>1.03</t>
   </si>
   <si>
     <t>Nuraini</t>
@@ -1133,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1145,7 +1178,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1171,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1183,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>320</v>
+        <v>609</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -1209,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1221,24 +1254,24 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I4">
         <v>15</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1250,33 +1283,33 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>805</v>
+        <v>1.804</v>
       </c>
       <c r="I5">
         <v>15</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1288,16 +1321,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>606</v>
+        <v>1.397</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -1306,15 +1339,15 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1323,36 +1356,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>391</v>
+        <v>698</v>
       </c>
       <c r="I7">
         <v>15</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1361,36 +1394,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>314</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="I8">
         <v>15</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1399,19 +1432,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H9">
-        <v>366</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="I9">
         <v>16</v>
@@ -1420,15 +1453,15 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1440,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>795</v>
+        <v>1.722</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -1458,15 +1491,15 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1478,16 +1511,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>1.121</v>
+        <v>2.3759999999999999</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1496,15 +1529,15 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1516,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>903</v>
+        <v>1.554</v>
       </c>
       <c r="I12">
         <v>15</v>
@@ -1534,15 +1567,15 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1554,16 +1587,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H13">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="I13">
         <v>16</v>
@@ -1572,15 +1605,15 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1589,36 +1622,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>350</v>
+        <v>1.345</v>
       </c>
       <c r="I14">
         <v>15</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1630,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>755</v>
+        <v>1.248</v>
       </c>
       <c r="I15">
         <v>16</v>
@@ -1648,15 +1681,15 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1668,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>240</v>
+        <v>648</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1686,15 +1719,15 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1703,19 +1736,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H17">
-        <v>599</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -1724,15 +1757,15 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1744,16 +1777,16 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>1.071</v>
+        <v>1.83</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1762,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D18AEAA-C4CC-4085-B253-07CB39B389FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1A815B-15BD-41F2-BFE7-FB06DE5F75E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250917_20250917 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250918_20250918" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Collector</t>
   </si>
@@ -58,217 +58,88 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>1,328,285.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>150,000.00</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>1,385,505.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>1,213,328.00</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>1,724,442.00</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>304,794.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>380,000.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>359,253.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>1,866,953.00</t>
-  </si>
-  <si>
-    <t>185,707,932.00</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>13.33</t>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>1,275,294.00</t>
-  </si>
-  <si>
-    <t>155,461,518.00</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>9.08</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>1,262,337.00</t>
-  </si>
-  <si>
-    <t>116,749,122.00</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>10.85</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>260,919.00</t>
-  </si>
-  <si>
-    <t>183,235,803.00</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>2.58</t>
+    <t>Nuraini</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>104,105.00</t>
-  </si>
-  <si>
-    <t>174,752,101.00</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>490,159.00</t>
-  </si>
-  <si>
-    <t>166,858,194.00</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>5.64</t>
+    <t>Fadilah Damayanti</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>875,611.00</t>
-  </si>
-  <si>
-    <t>123,596,522.00</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>400,000.00</t>
-  </si>
-  <si>
-    <t>154,877,453.00</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>158,243,116.00</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>165,267,372.00</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>175,882,272.00</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>606,835.00</t>
-  </si>
-  <si>
-    <t>140,684,517.00</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>1,081,034.00</t>
-  </si>
-  <si>
-    <t>140,803,918.00</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>9.37</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>125,081,321.00</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>141,959,243.00</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>1,501,952.00</t>
-  </si>
-  <si>
-    <t>146,114,468.00</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>448,723.00</t>
-  </si>
-  <si>
-    <t>101,641,209.00</t>
-  </si>
-  <si>
-    <t>0.44</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +983,24 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1166,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1174,28 +1059,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1204,36 +1089,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1242,36 +1127,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1280,36 +1165,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.804</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1321,33 +1206,33 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.397</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1356,36 +1241,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1397,33 +1282,33 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.3009999999999999</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1432,373 +1317,76 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1.0209999999999999</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10">
-        <v>1.722</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12">
-        <v>1.554</v>
-      </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13">
-        <v>505</v>
-      </c>
-      <c r="I13">
-        <v>16</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14">
-        <v>1.345</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15">
-        <v>1.248</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16">
-        <v>648</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18">
-        <v>1.83</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1A815B-15BD-41F2-BFE7-FB06DE5F75E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7965DA6-6539-4911-A468-DE234C27F380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250918_20250918" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250918_20250918 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
   <si>
     <t>Collector</t>
   </si>
@@ -70,6 +70,12 @@
     <t>1,328,285.00</t>
   </si>
   <si>
+    <t>181,468,670.00</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -79,67 +85,160 @@
     <t>150,000.00</t>
   </si>
   <si>
+    <t>168,328,367.00</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
     <t>1,385,505.00</t>
   </si>
   <si>
+    <t>154,169,658.00</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
     <t>Romli</t>
   </si>
   <si>
     <t>1,213,328.00</t>
   </si>
   <si>
+    <t>160,998,475.00</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
     <t>Nur Halim</t>
   </si>
   <si>
     <t>1,724,442.00</t>
   </si>
   <si>
+    <t>140,860,361.00</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
     <t>304,794.00</t>
   </si>
   <si>
+    <t>151,091,105.00</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
     <t>380,000.00</t>
   </si>
   <si>
+    <t>126,806,151.00</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
     <t>359,253.00</t>
   </si>
   <si>
+    <t>131,768,015.00</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>401,228.00</t>
+  </si>
+  <si>
+    <t>183,824,965.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>313,000.00</t>
+  </si>
+  <si>
+    <t>169,089,834.00</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>235,379.00</t>
+  </si>
+  <si>
+    <t>126,976,914.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>150,710,259.00</t>
+  </si>
+  <si>
+    <t>Hansyah Martha Kusuma D</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>175,374,058.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>151,767,408.00</t>
+  </si>
+  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
+    <t>155,052,239.00</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
+    <t>143,190,648.00</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
+    <t>515,664.00</t>
+  </si>
+  <si>
+    <t>109,283,096.00</t>
+  </si>
+  <si>
+    <t>0.47</t>
   </si>
 </sst>
 </file>
@@ -980,27 +1079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1059,28 +1144,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1092,33 +1177,33 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>184</v>
+      </c>
+      <c r="I3">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1130,33 +1215,33 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1168,33 +1253,33 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
         <v>16</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1206,33 +1291,33 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>183</v>
+      </c>
+      <c r="I6">
         <v>16</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1244,33 +1329,33 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>16</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1282,33 +1367,33 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1320,73 +1405,408 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>392</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>83</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>757</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>67</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>73</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\s2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7965DA6-6539-4911-A468-DE234C27F380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B204EC4-1801-4481-BCAE-7671FE7F4469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250918_20250918 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250918_20250918 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>1,328,285.00</t>
+    <t>7,596,618.00</t>
   </si>
   <si>
     <t>181,468,670.00</t>
   </si>
   <si>
-    <t>0.73</t>
+    <t>4.19</t>
   </si>
   <si>
     <t>0.00</t>
@@ -82,13 +82,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>150,000.00</t>
+    <t>650,000.00</t>
   </si>
   <si>
     <t>168,328,367.00</t>
   </si>
   <si>
-    <t>0.09</t>
+    <t>0.39</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
@@ -121,13 +121,16 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>1,724,442.00</t>
+    <t>3,391,615.00</t>
   </si>
   <si>
     <t>140,860,361.00</t>
   </si>
   <si>
-    <t>1.22</t>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>2.75</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
@@ -157,24 +160,30 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>359,253.00</t>
+    <t>931,029.00</t>
   </si>
   <si>
     <t>131,768,015.00</t>
   </si>
   <si>
-    <t>0.27</t>
+    <t>0.71</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>401,228.00</t>
+    <t>3,714,053.00</t>
   </si>
   <si>
     <t>183,824,965.00</t>
   </si>
   <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
@@ -187,6 +196,12 @@
     <t>0.19</t>
   </si>
   <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
@@ -208,9 +223,18 @@
     <t>Fadilah Damayanti</t>
   </si>
   <si>
+    <t>622,038.00</t>
+  </si>
+  <si>
     <t>175,374,058.00</t>
   </si>
   <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
@@ -220,15 +244,27 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
+    <t>722,599.00</t>
+  </si>
+  <si>
     <t>155,052,239.00</t>
   </si>
   <si>
+    <t>0.47</t>
+  </si>
+  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
+    <t>143,123.00</t>
+  </si>
+  <si>
     <t>143,190,648.00</t>
   </si>
   <si>
+    <t>0.10</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
@@ -236,9 +272,6 @@
   </si>
   <si>
     <t>109,283,096.00</t>
-  </si>
-  <si>
-    <t>0.47</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1148,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>169</v>
+        <v>914</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1174,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1186,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>184</v>
+        <v>614</v>
       </c>
       <c r="I3">
         <v>16</v>
@@ -1224,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>369</v>
+        <v>695</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1262,7 +1295,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="I5">
         <v>16</v>
@@ -1288,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -1300,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="H6">
-        <v>183</v>
+        <v>1.026</v>
       </c>
       <c r="I6">
         <v>16</v>
@@ -1309,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1317,7 +1350,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1329,16 +1362,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>389</v>
       </c>
       <c r="I7">
         <v>16</v>
@@ -1355,7 +1388,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1367,16 +1400,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>43</v>
+        <v>445</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1393,7 +1426,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1402,19 +1435,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1431,7 +1464,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1440,19 +1473,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I10">
         <v>16</v>
@@ -1461,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -1469,7 +1502,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1481,33 +1514,33 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>392</v>
+        <v>1.3</v>
       </c>
       <c r="I11">
         <v>15</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1519,16 +1552,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
       <c r="H12">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="I12">
         <v>15</v>
@@ -1545,7 +1578,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1560,13 +1593,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1583,7 +1616,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1621,7 +1654,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1630,36 +1663,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>438</v>
       </c>
       <c r="I15">
         <v>15</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1674,13 +1707,13 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16">
-        <v>757</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1697,7 +1730,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1706,19 +1739,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H17">
-        <v>67</v>
+        <v>473</v>
       </c>
       <c r="I17">
         <v>16</v>
@@ -1735,7 +1768,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1744,19 +1777,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>73</v>
+        <v>1.012</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1773,7 +1806,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1785,16 +1818,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H19">
-        <v>72</v>
+        <v>1.014</v>
       </c>
       <c r="I19">
         <v>15</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\s2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B204EC4-1801-4481-BCAE-7671FE7F4469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1278E21-DA4B-48F5-8657-773AED56965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250918_20250918 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250918_20250918 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>7,596,618.00</t>
+    <t>7,887,357.00</t>
   </si>
   <si>
     <t>181,468,670.00</t>
   </si>
   <si>
-    <t>4.19</t>
+    <t>4.35</t>
   </si>
   <si>
     <t>0.00</t>
@@ -148,25 +148,25 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>380,000.00</t>
+    <t>1,257,313.00</t>
   </si>
   <si>
     <t>126,806,151.00</t>
   </si>
   <si>
-    <t>0.30</t>
+    <t>0.99</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>931,029.00</t>
+    <t>2,461,076.00</t>
   </si>
   <si>
     <t>131,768,015.00</t>
   </si>
   <si>
-    <t>0.71</t>
+    <t>1.87</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
@@ -214,9 +214,15 @@
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
+    <t>1,185,731.00</t>
+  </si>
+  <si>
     <t>150,710,259.00</t>
   </si>
   <si>
+    <t>0.79</t>
+  </si>
+  <si>
     <t>Hansyah Martha Kusuma D</t>
   </si>
   <si>
@@ -244,34 +250,37 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>722,599.00</t>
+    <t>1,026,016.00</t>
   </si>
   <si>
     <t>155,052,239.00</t>
   </si>
   <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>478,592.00</t>
+  </si>
+  <si>
+    <t>143,190,648.00</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>515,664.00</t>
+  </si>
+  <si>
+    <t>109,283,096.00</t>
+  </si>
+  <si>
     <t>0.47</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>143,123.00</t>
-  </si>
-  <si>
-    <t>143,190,648.00</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>515,664.00</t>
-  </si>
-  <si>
-    <t>109,283,096.00</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1181,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>914</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1219,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>614</v>
+        <v>711</v>
       </c>
       <c r="I3">
         <v>16</v>
@@ -1257,7 +1266,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>695</v>
+        <v>872</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -1295,7 +1304,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>348</v>
+        <v>879</v>
       </c>
       <c r="I5">
         <v>16</v>
@@ -1371,7 +1380,7 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="I7">
         <v>16</v>
@@ -1397,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1409,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="H8">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1435,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -1447,7 +1456,7 @@
         <v>48</v>
       </c>
       <c r="H9">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1485,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="H10">
-        <v>264</v>
+        <v>687</v>
       </c>
       <c r="I10">
         <v>16</v>
@@ -1523,7 +1532,7 @@
         <v>57</v>
       </c>
       <c r="H11">
-        <v>1.3</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1561,7 +1570,7 @@
         <v>57</v>
       </c>
       <c r="H12">
-        <v>411</v>
+        <v>730</v>
       </c>
       <c r="I12">
         <v>15</v>
@@ -1587,19 +1596,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H13">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1616,7 +1625,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1654,7 +1663,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1666,16 +1675,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1684,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
         <v>59</v>
@@ -1692,7 +1701,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1707,13 +1716,13 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16">
-        <v>1.2130000000000001</v>
+        <v>1.631</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1730,7 +1739,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1739,19 +1748,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H17">
-        <v>473</v>
+        <v>618</v>
       </c>
       <c r="I17">
         <v>16</v>
@@ -1768,7 +1777,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1777,19 +1786,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>1.012</v>
+        <v>1.032</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1806,7 +1815,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1818,16 +1827,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H19">
-        <v>1.014</v>
+        <v>1.171</v>
       </c>
       <c r="I19">
         <v>15</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1278E21-DA4B-48F5-8657-773AED56965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC358A7-6EFC-4AC4-A8E8-A5BD3A35E45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250918_20250918 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250919_20250919" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="66">
   <si>
     <t>Collector</t>
   </si>
@@ -58,229 +58,166 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>1,832,097.00</t>
+  </si>
+  <si>
+    <t>158,153,073.00</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>1,598,378.00</t>
+  </si>
+  <si>
+    <t>153,773,377.00</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>13.33</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>207,532.00</t>
+  </si>
+  <si>
+    <t>123,680,151.00</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>431,728.00</t>
+  </si>
+  <si>
+    <t>154,418,111.00</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>60,000.00</t>
+  </si>
+  <si>
+    <t>108,563,102.00</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>797,933.00</t>
+  </si>
+  <si>
+    <t>166,756,610.00</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>294,131.00</t>
+  </si>
+  <si>
+    <t>138,473,452.00</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>7,887,357.00</t>
-  </si>
-  <si>
-    <t>181,468,670.00</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>650,000.00</t>
-  </si>
-  <si>
-    <t>168,328,367.00</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>1,385,505.00</t>
-  </si>
-  <si>
-    <t>154,169,658.00</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>1,213,328.00</t>
-  </si>
-  <si>
-    <t>160,998,475.00</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.22</t>
+    <t>181,705,017.00</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>172,403,640.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>172,482,709.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>152,763,396.00</t>
+  </si>
+  <si>
+    <t>Hansyah Martha Kusuma D</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>154,195,300.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>149,620,275.00</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>3,391,615.00</t>
-  </si>
-  <si>
-    <t>140,860,361.00</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>2.75</t>
+    <t>139,337,487.00</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>304,794.00</t>
-  </si>
-  <si>
-    <t>151,091,105.00</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>1,257,313.00</t>
-  </si>
-  <si>
-    <t>126,806,151.00</t>
-  </si>
-  <si>
-    <t>0.99</t>
+    <t>150,867,117.00</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>2,461,076.00</t>
-  </si>
-  <si>
-    <t>131,768,015.00</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>3,714,053.00</t>
-  </si>
-  <si>
-    <t>183,824,965.00</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>313,000.00</t>
-  </si>
-  <si>
-    <t>169,089,834.00</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>235,379.00</t>
-  </si>
-  <si>
-    <t>126,976,914.00</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>1,185,731.00</t>
-  </si>
-  <si>
-    <t>150,710,259.00</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>Hansyah Martha Kusuma D</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>622,038.00</t>
-  </si>
-  <si>
-    <t>175,374,058.00</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>5.78</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>151,767,408.00</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>1,026,016.00</t>
-  </si>
-  <si>
-    <t>155,052,239.00</t>
-  </si>
-  <si>
-    <t>0.66</t>
+    <t>127,656,565.00</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>478,592.00</t>
-  </si>
-  <si>
-    <t>143,190,648.00</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>515,664.00</t>
-  </si>
-  <si>
-    <t>109,283,096.00</t>
-  </si>
-  <si>
-    <t>0.47</t>
+    <t>138,767,355.00</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1061,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1190,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>1.0900000000000001</v>
+        <v>476</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1216,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1228,24 +1165,24 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>711</v>
+        <v>123</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1254,22 +1191,22 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>872</v>
+        <v>140</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1283,7 +1220,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1292,28 +1229,28 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>879</v>
+        <v>35</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -1321,7 +1258,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1330,28 +1267,28 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>1.026</v>
+        <v>202</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1368,7 +1305,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -1380,10 +1317,10 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="I7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1406,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1418,10 +1355,10 @@
         <v>44</v>
       </c>
       <c r="H8">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1444,19 +1381,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>456</v>
+        <v>221</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1473,7 +1410,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1482,28 +1419,28 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>687</v>
+        <v>27</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -1511,7 +1448,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1520,36 +1457,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>1.5920000000000001</v>
+        <v>275</v>
       </c>
       <c r="I11">
         <v>15</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1558,22 +1495,22 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>730</v>
+        <v>176</v>
       </c>
       <c r="I12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1587,7 +1524,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1596,36 +1533,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1640,30 +1577,30 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1672,36 +1609,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>15</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1716,16 +1653,16 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16">
-        <v>1.631</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1739,7 +1676,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1748,22 +1685,22 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>618</v>
+        <v>127</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1777,7 +1714,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1786,19 +1723,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>1.032</v>
+        <v>111</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1815,7 +1752,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1824,22 +1761,22 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>1.171</v>
+        <v>904</v>
       </c>
       <c r="I19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19">
         <v>0</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC358A7-6EFC-4AC4-A8E8-A5BD3A35E45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{663FC56C-0D8F-4127-9762-6E8626D6057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250919_20250919" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250919_20250919 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>Collector</t>
   </si>
@@ -82,55 +82,64 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>1,598,378.00</t>
+    <t>2,045,674.00</t>
   </si>
   <si>
     <t>153,773,377.00</t>
   </si>
   <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>13.33</t>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>10.21</t>
+  </si>
+  <si>
+    <t>20.00</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>207,532.00</t>
+    <t>1,109,587.00</t>
   </si>
   <si>
     <t>123,680,151.00</t>
   </si>
   <si>
-    <t>0.17</t>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>7.14</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>431,728.00</t>
+    <t>1,594,698.00</t>
   </si>
   <si>
     <t>154,418,111.00</t>
   </si>
   <si>
-    <t>0.28</t>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>11.30</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>60,000.00</t>
+    <t>823,206.00</t>
   </si>
   <si>
     <t>108,563,102.00</t>
   </si>
   <si>
-    <t>0.06</t>
+    <t>0.76</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
@@ -148,33 +157,57 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>294,131.00</t>
+    <t>472,062.00</t>
   </si>
   <si>
     <t>138,473,452.00</t>
   </si>
   <si>
-    <t>0.21</t>
+    <t>0.34</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>1,091,981.00</t>
+  </si>
+  <si>
     <t>181,705,017.00</t>
   </si>
   <si>
+    <t>0.60</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
+    <t>2,722,914.00</t>
+  </si>
+  <si>
     <t>172,403,640.00</t>
   </si>
   <si>
+    <t>1.58</t>
+  </si>
+  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
+    <t>1,232,463.00</t>
+  </si>
+  <si>
     <t>172,482,709.00</t>
   </si>
   <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
@@ -187,9 +220,15 @@
     <t>Fadilah Damayanti</t>
   </si>
   <si>
+    <t>1,033,770.00</t>
+  </si>
+  <si>
     <t>154,195,300.00</t>
   </si>
   <si>
+    <t>0.67</t>
+  </si>
+  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
@@ -199,7 +238,16 @@
     <t>Nur Halim</t>
   </si>
   <si>
+    <t>348,228.00</t>
+  </si>
+  <si>
     <t>139,337,487.00</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>3.85</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
@@ -1061,7 +1109,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>476</v>
+        <v>778</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1153,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1165,13 +1213,13 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>123</v>
+        <v>738</v>
       </c>
       <c r="I3">
         <v>15</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -1191,7 +1239,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1203,24 +1251,24 @@
         <v>28</v>
       </c>
       <c r="H4">
-        <v>140</v>
+        <v>742</v>
       </c>
       <c r="I4">
         <v>14</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1229,28 +1277,28 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5">
+        <v>185</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -1258,7 +1306,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1267,19 +1315,19 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -1296,7 +1344,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1308,16 +1356,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>429</v>
+        <v>813</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -1334,7 +1382,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1343,19 +1391,19 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="I8">
         <v>14</v>
@@ -1372,7 +1420,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1381,19 +1429,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>221</v>
+        <v>574</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1410,7 +1458,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1419,19 +1467,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1448,7 +1496,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1457,36 +1505,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>275</v>
+        <v>736</v>
       </c>
       <c r="I11">
         <v>15</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1501,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -1524,7 +1572,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1562,7 +1610,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1571,19 +1619,19 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="H14">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1600,7 +1648,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1615,13 +1663,13 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1638,7 +1686,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1647,19 +1695,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1668,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1676,7 +1724,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1691,13 +1739,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
-        <v>127</v>
+        <v>906</v>
       </c>
       <c r="I17">
         <v>14</v>
@@ -1714,7 +1762,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1729,13 +1777,13 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>111</v>
+        <v>482</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1752,7 +1800,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1767,13 +1815,13 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19">
-        <v>904</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="I19">
         <v>14</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{663FC56C-0D8F-4127-9762-6E8626D6057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32ABC484-1680-47C5-8486-562E885AB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250919_20250919 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250920_20250920" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Collector</t>
   </si>
@@ -58,214 +58,76 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>421,986.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>199,098.00</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>2,068,664.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>596,395.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>1,832,097.00</t>
-  </si>
-  <si>
-    <t>158,153,073.00</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>2,045,674.00</t>
-  </si>
-  <si>
-    <t>153,773,377.00</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>10.21</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>1,109,587.00</t>
-  </si>
-  <si>
-    <t>123,680,151.00</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>7.14</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>1,594,698.00</t>
-  </si>
-  <si>
-    <t>154,418,111.00</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>11.30</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>823,206.00</t>
-  </si>
-  <si>
-    <t>108,563,102.00</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>797,933.00</t>
-  </si>
-  <si>
-    <t>166,756,610.00</t>
-  </si>
-  <si>
-    <t>0.48</t>
+    <t>Fadilah Damayanti</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>472,062.00</t>
-  </si>
-  <si>
-    <t>138,473,452.00</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>1,091,981.00</t>
-  </si>
-  <si>
-    <t>181,705,017.00</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>2,722,914.00</t>
-  </si>
-  <si>
-    <t>172,403,640.00</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>1,232,463.00</t>
-  </si>
-  <si>
-    <t>172,482,709.00</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>152,763,396.00</t>
-  </si>
-  <si>
-    <t>Hansyah Martha Kusuma D</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>1,033,770.00</t>
-  </si>
-  <si>
-    <t>154,195,300.00</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>149,620,275.00</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>348,228.00</t>
-  </si>
-  <si>
-    <t>139,337,487.00</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
     <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>150,867,117.00</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>127,656,565.00</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>138,767,355.00</t>
   </si>
 </sst>
 </file>
@@ -1106,13 +968,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1163,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1171,28 +1045,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1201,36 +1075,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1239,36 +1113,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1277,563 +1151,96 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>366</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>813</v>
-      </c>
-      <c r="I7">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8">
-        <v>446</v>
-      </c>
-      <c r="I8">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9">
-        <v>574</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10">
-        <v>51</v>
-      </c>
-      <c r="I10">
-        <v>14</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11">
-        <v>736</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>331</v>
-      </c>
-      <c r="I12">
-        <v>14</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14">
-        <v>288</v>
-      </c>
-      <c r="I14">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15">
-        <v>274</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16">
-        <v>168</v>
-      </c>
-      <c r="I16">
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17">
-        <v>906</v>
-      </c>
-      <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>482</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="I19">
-        <v>14</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32ABC484-1680-47C5-8486-562E885AB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E27AEC-89BC-48EC-9985-FB3A3E44B1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250920_20250920" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250920_20250920 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
   <si>
     <t>Collector</t>
   </si>
@@ -70,13 +70,31 @@
     <t>421,986.00</t>
   </si>
   <si>
+    <t>180,716,728.00</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>199,098.00</t>
+    <t>374,167.00</t>
+  </si>
+  <si>
+    <t>118,469,041.00</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>5.88</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -85,49 +103,157 @@
     <t>2,068,664.00</t>
   </si>
   <si>
+    <t>138,257,351.00</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>15.47</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
     <t>596,395.00</t>
   </si>
   <si>
+    <t>126,600,041.00</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>2,669,044.00</t>
+  </si>
+  <si>
+    <t>167,077,735.00</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>332,151.00</t>
+  </si>
+  <si>
+    <t>173,398,407.00</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>244,612.00</t>
+  </si>
+  <si>
+    <t>169,036,382.00</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>147,013,173.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>143,490,039.00</t>
+  </si>
+  <si>
+    <t>Hansyah Martha Kusuma D</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>174,490,433.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>33,270.00</t>
+  </si>
+  <si>
+    <t>151,640,441.00</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>144,269,520.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>307,699.00</t>
+  </si>
+  <si>
+    <t>153,945,290.00</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>460,595.00</t>
+  </si>
+  <si>
+    <t>135,249,802.00</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>150,605,406.00</t>
+  </si>
+  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
+    <t>225,333.00</t>
+  </si>
+  <si>
+    <t>152,791,815.00</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
+    <t>111,888,300.00</t>
   </si>
 </sst>
 </file>
@@ -968,25 +1094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1045,28 +1159,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1075,36 +1189,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1116,33 +1230,33 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>529</v>
+      </c>
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1154,93 +1268,560 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>800</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>426</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>414</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>626</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>312</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>262</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15">
+        <v>349</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>78</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>244</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>312</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>457</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E27AEC-89BC-48EC-9985-FB3A3E44B1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA386FC-FE25-49B9-A561-5ECE283287DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250920_20250920 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250922_20250922 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
   <si>
     <t>Collector</t>
   </si>
@@ -58,202 +58,151 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>360,733.00</t>
+  </si>
+  <si>
+    <t>183,530,586.00</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>910,252.00</t>
+  </si>
+  <si>
+    <t>184,021,512.00</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>15,360.00</t>
+  </si>
+  <si>
+    <t>139,772,322.00</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>421,986.00</t>
-  </si>
-  <si>
-    <t>180,716,728.00</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>389,918.00</t>
+  </si>
+  <si>
+    <t>181,277,604.00</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>174,583,863.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>156,314,596.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>150,746,877.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>153,236,053.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>147,012,965.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>158,551,767.00</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>145,254,590.00</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>162,046,652.00</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>374,167.00</t>
-  </si>
-  <si>
-    <t>118,469,041.00</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>5.88</t>
+    <t>129,912,338.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>139,717,621.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>161,043,218.00</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>2,068,664.00</t>
-  </si>
-  <si>
-    <t>138,257,351.00</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>15.47</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>596,395.00</t>
-  </si>
-  <si>
-    <t>126,600,041.00</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>4.77</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>2,669,044.00</t>
-  </si>
-  <si>
-    <t>167,077,735.00</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>332,151.00</t>
-  </si>
-  <si>
-    <t>173,398,407.00</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>244,612.00</t>
-  </si>
-  <si>
-    <t>169,036,382.00</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>147,013,173.00</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>143,490,039.00</t>
-  </si>
-  <si>
-    <t>Hansyah Martha Kusuma D</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>174,490,433.00</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>33,270.00</t>
-  </si>
-  <si>
-    <t>151,640,441.00</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>5.56</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>144,269,520.00</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>307,699.00</t>
-  </si>
-  <si>
-    <t>153,945,290.00</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>460,595.00</t>
-  </si>
-  <si>
-    <t>135,249,802.00</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>150,605,406.00</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>225,333.00</t>
-  </si>
-  <si>
-    <t>152,791,815.00</t>
-  </si>
-  <si>
-    <t>0.15</t>
+    <t>149,645,141.00</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>111,888,300.00</t>
+    <t>126,794,524.00</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,24 +1112,24 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1189,28 +1138,28 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -1227,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1239,24 +1188,24 @@
         <v>28</v>
       </c>
       <c r="H4">
-        <v>529</v>
+        <v>33</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1268,33 +1217,33 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1303,36 +1252,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>207</v>
+      </c>
+      <c r="I6">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>86</v>
-      </c>
-      <c r="I6">
-        <v>16</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1341,36 +1290,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>800</v>
+        <v>429</v>
       </c>
       <c r="I7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1379,36 +1328,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1420,33 +1369,33 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1458,33 +1407,33 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="I10">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1496,33 +1445,33 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1534,33 +1483,33 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>626</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1569,36 +1518,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="I13">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1610,33 +1559,33 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1645,36 +1594,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="I15">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1683,36 +1632,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1724,33 +1673,33 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H17">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1759,69 +1708,31 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19">
-        <v>457</v>
-      </c>
-      <c r="I19">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA386FC-FE25-49B9-A561-5ECE283287DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70485A8F-09D2-4FB7-9DAF-4F7A1A8FAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250922_20250922 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250922_20250922 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>Collector</t>
   </si>
@@ -67,132 +67,192 @@
     <t>S2</t>
   </si>
   <si>
-    <t>360,733.00</t>
+    <t>1,456,795.00</t>
   </si>
   <si>
     <t>183,530,586.00</t>
   </si>
   <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>1.25</t>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>1,117,597.00</t>
+  </si>
+  <si>
+    <t>184,021,512.00</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>2.63</t>
   </si>
   <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>910,252.00</t>
-  </si>
-  <si>
-    <t>184,021,512.00</t>
-  </si>
-  <si>
-    <t>0.49</t>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>15,360.00</t>
+  </si>
+  <si>
+    <t>139,772,322.00</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>15,360.00</t>
-  </si>
-  <si>
-    <t>139,772,322.00</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>389,918.00</t>
+    <t>545,422.00</t>
   </si>
   <si>
     <t>181,277,604.00</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>1.56</t>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>174,583,863.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>156,314,596.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>510,444.00</t>
+  </si>
+  <si>
+    <t>150,746,877.00</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>153,236,053.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>1,318,562.00</t>
+  </si>
+  <si>
+    <t>147,012,965.00</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>415,250.00</t>
+  </si>
+  <si>
+    <t>158,551,767.00</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>860,582.00</t>
+  </si>
+  <si>
+    <t>145,254,590.00</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>1,012,499.00</t>
+  </si>
+  <si>
+    <t>162,046,652.00</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>129,912,338.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>401,414.00</t>
+  </si>
+  <si>
+    <t>139,717,621.00</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>928,825.00</t>
+  </si>
+  <si>
+    <t>161,043,218.00</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>2.96</t>
   </si>
   <si>
     <t>2.70</t>
   </si>
   <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>174,583,863.00</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>156,314,596.00</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>150,746,877.00</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>153,236,053.00</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>147,012,965.00</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>158,551,767.00</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>145,254,590.00</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>162,046,652.00</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>129,912,338.00</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>139,717,621.00</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>161,043,218.00</t>
-  </si>
-  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
@@ -202,7 +262,16 @@
     <t>Nuraini</t>
   </si>
   <si>
+    <t>208,697.00</t>
+  </si>
+  <si>
     <t>126,794,524.00</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1112,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="I2">
         <v>38</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1138,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1150,24 +1219,24 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="I3">
         <v>38</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1179,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <v>36</v>
@@ -1197,15 +1266,15 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1214,36 +1283,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="I5">
         <v>37</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1255,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>207</v>
+        <v>839</v>
       </c>
       <c r="I6">
         <v>37</v>
@@ -1273,15 +1342,15 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1293,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>429</v>
+        <v>810</v>
       </c>
       <c r="I7">
         <v>36</v>
@@ -1311,15 +1380,15 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1328,19 +1397,19 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I8">
         <v>37</v>
@@ -1349,15 +1418,15 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1369,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I9">
         <v>37</v>
@@ -1387,15 +1456,15 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1404,19 +1473,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="I10">
         <v>37</v>
@@ -1425,15 +1494,15 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1442,19 +1511,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H11">
-        <v>409</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="I11">
         <v>37</v>
@@ -1463,15 +1532,15 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1480,19 +1549,19 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="I12">
         <v>38</v>
@@ -1501,15 +1570,15 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1518,19 +1587,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H13">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="I13">
         <v>37</v>
@@ -1539,15 +1608,15 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1559,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>383</v>
       </c>
       <c r="I14">
         <v>37</v>
@@ -1577,15 +1646,15 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1594,19 +1663,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>384</v>
       </c>
       <c r="I15">
         <v>37</v>
@@ -1615,15 +1684,15 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1632,36 +1701,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="H16">
-        <v>64</v>
+        <v>345</v>
       </c>
       <c r="I16">
         <v>37</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1673,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>116</v>
+        <v>728</v>
       </c>
       <c r="I17">
         <v>37</v>
@@ -1691,15 +1760,15 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1708,19 +1777,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="I18">
         <v>37</v>
@@ -1729,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70485A8F-09D2-4FB7-9DAF-4F7A1A8FAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9AFF17-01DC-4E48-BC0C-64BFEC4275AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250922_20250922 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250922_20250922 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>Collector</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>15,360.00</t>
+    <t>514,062.00</t>
   </si>
   <si>
     <t>139,772,322.00</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.37</t>
   </si>
   <si>
     <t>0.00</t>
@@ -136,9 +136,21 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>836,026.00</t>
+  </si>
+  <si>
     <t>174,583,863.00</t>
   </si>
   <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
@@ -148,13 +160,16 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>510,444.00</t>
+    <t>757,559.00</t>
   </si>
   <si>
     <t>150,746,877.00</t>
   </si>
   <si>
-    <t>0.34</t>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>2.98</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
@@ -166,13 +181,13 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>1,318,562.00</t>
+    <t>2,345,981.00</t>
   </si>
   <si>
     <t>147,012,965.00</t>
   </si>
   <si>
-    <t>0.90</t>
+    <t>1.60</t>
   </si>
   <si>
     <t>5.28</t>
@@ -193,15 +208,12 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>860,582.00</t>
+    <t>1,142,490.00</t>
   </si>
   <si>
     <t>145,254,590.00</t>
   </si>
   <si>
-    <t>0.59</t>
-  </si>
-  <si>
     <t>2.23</t>
   </si>
   <si>
@@ -217,12 +229,21 @@
     <t>0.62</t>
   </si>
   <si>
+    <t>3.55</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
+    <t>387,656.00</t>
+  </si>
+  <si>
     <t>129,912,338.00</t>
   </si>
   <si>
+    <t>1.31</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
@@ -235,6 +256,9 @@
     <t>0.29</t>
   </si>
   <si>
+    <t>1.49</t>
+  </si>
+  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
@@ -250,9 +274,6 @@
     <t>2.96</t>
   </si>
   <si>
-    <t>2.70</t>
-  </si>
-  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
@@ -262,13 +283,13 @@
     <t>Nuraini</t>
   </si>
   <si>
-    <t>208,697.00</t>
+    <t>3,317,960.00</t>
   </si>
   <si>
     <t>126,794,524.00</t>
   </si>
   <si>
-    <t>0.16</t>
+    <t>2.62</t>
   </si>
   <si>
     <t>0.68</t>
@@ -1181,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="I2">
         <v>38</v>
@@ -1219,7 +1240,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>334</v>
+        <v>496</v>
       </c>
       <c r="I3">
         <v>38</v>
@@ -1245,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1257,7 +1278,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="I4">
         <v>36</v>
@@ -1295,7 +1316,7 @@
         <v>34</v>
       </c>
       <c r="H5">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="I5">
         <v>37</v>
@@ -1321,36 +1342,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>839</v>
+        <v>1.077</v>
       </c>
       <c r="I6">
         <v>37</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1365,13 +1386,13 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
       <c r="H7">
-        <v>810</v>
+        <v>1.129</v>
       </c>
       <c r="I7">
         <v>36</v>
@@ -1388,7 +1409,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1397,19 +1418,19 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="I8">
         <v>37</v>
@@ -1418,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
@@ -1426,7 +1447,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1441,13 +1462,13 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
       </c>
       <c r="H9">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I9">
         <v>37</v>
@@ -1464,7 +1485,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1473,19 +1494,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="I10">
         <v>37</v>
@@ -1494,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
@@ -1502,7 +1523,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1514,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>2.1819999999999999</v>
+        <v>2.9289999999999998</v>
       </c>
       <c r="I11">
         <v>37</v>
@@ -1540,7 +1561,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1549,19 +1570,19 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="I12">
         <v>38</v>
@@ -1570,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
         <v>30</v>
@@ -1578,7 +1599,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1590,33 +1611,33 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H13">
-        <v>265</v>
+        <v>654</v>
       </c>
       <c r="I13">
         <v>37</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1625,36 +1646,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>383</v>
+        <v>552</v>
       </c>
       <c r="I14">
         <v>37</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1666,16 +1687,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H15">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="I15">
         <v>37</v>
@@ -1684,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
         <v>30</v>
@@ -1692,7 +1713,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1704,16 +1725,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H16">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="I16">
         <v>37</v>
@@ -1722,15 +1743,15 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1745,13 +1766,13 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
       </c>
       <c r="H17">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="I17">
         <v>37</v>
@@ -1768,7 +1789,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1777,19 +1798,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H18">
-        <v>366</v>
+        <v>556</v>
       </c>
       <c r="I18">
         <v>37</v>
@@ -1798,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
         <v>30</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9AFF17-01DC-4E48-BC0C-64BFEC4275AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFD893E-C88F-47BA-8665-F2BEC717FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250922_20250922 (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250922_20250922 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>Collector</t>
   </si>
@@ -160,16 +160,16 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>757,559.00</t>
+    <t>1,145,215.00</t>
   </si>
   <si>
     <t>150,746,877.00</t>
   </si>
   <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>2.98</t>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>4.68</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
@@ -208,28 +208,28 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>1,142,490.00</t>
+    <t>5,680,689.00</t>
   </si>
   <si>
     <t>145,254,590.00</t>
   </si>
   <si>
-    <t>2.23</t>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>2.78</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>1,012,499.00</t>
+    <t>1,168,003.00</t>
   </si>
   <si>
     <t>162,046,652.00</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>3.55</t>
+    <t>4.07</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
@@ -247,16 +247,16 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>401,414.00</t>
+    <t>1,085,402.00</t>
   </si>
   <si>
     <t>139,717,621.00</t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>1.49</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>3.93</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
@@ -277,9 +277,18 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
+    <t>323,358.00</t>
+  </si>
+  <si>
     <t>149,645,141.00</t>
   </si>
   <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
@@ -292,7 +301,7 @@
     <t>2.62</t>
   </si>
   <si>
-    <t>0.68</t>
+    <t>9.80</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>434</v>
+        <v>912</v>
       </c>
       <c r="I2">
         <v>38</v>
@@ -1240,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>496</v>
+        <v>1.24</v>
       </c>
       <c r="I3">
         <v>38</v>
@@ -1278,7 +1287,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>288</v>
+        <v>682</v>
       </c>
       <c r="I4">
         <v>36</v>
@@ -1316,7 +1325,7 @@
         <v>34</v>
       </c>
       <c r="H5">
-        <v>377</v>
+        <v>523</v>
       </c>
       <c r="I5">
         <v>37</v>
@@ -1354,7 +1363,7 @@
         <v>40</v>
       </c>
       <c r="H6">
-        <v>1.077</v>
+        <v>2.052</v>
       </c>
       <c r="I6">
         <v>37</v>
@@ -1392,7 +1401,7 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>1.129</v>
+        <v>2.153</v>
       </c>
       <c r="I7">
         <v>36</v>
@@ -1418,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -1430,19 +1439,19 @@
         <v>48</v>
       </c>
       <c r="H8">
-        <v>241</v>
+        <v>1.179</v>
       </c>
       <c r="I8">
         <v>37</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>105</v>
+        <v>522</v>
       </c>
       <c r="I9">
         <v>37</v>
@@ -1506,7 +1515,7 @@
         <v>55</v>
       </c>
       <c r="H10">
-        <v>277</v>
+        <v>982</v>
       </c>
       <c r="I10">
         <v>37</v>
@@ -1544,7 +1553,7 @@
         <v>60</v>
       </c>
       <c r="H11">
-        <v>2.9289999999999998</v>
+        <v>4.1319999999999997</v>
       </c>
       <c r="I11">
         <v>37</v>
@@ -1570,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>62</v>
@@ -1579,27 +1588,27 @@
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H12">
-        <v>243</v>
+        <v>496</v>
       </c>
       <c r="I12">
         <v>38</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1608,31 +1617,31 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>654</v>
+        <v>754</v>
       </c>
       <c r="I13">
         <v>37</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
         <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1658,7 +1667,7 @@
         <v>34</v>
       </c>
       <c r="H14">
-        <v>552</v>
+        <v>947</v>
       </c>
       <c r="I14">
         <v>37</v>
@@ -1684,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
@@ -1696,19 +1705,19 @@
         <v>77</v>
       </c>
       <c r="H15">
-        <v>423</v>
+        <v>963</v>
       </c>
       <c r="I15">
         <v>37</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="H16">
-        <v>362</v>
+        <v>522</v>
       </c>
       <c r="I16">
         <v>37</v>
@@ -1760,36 +1769,36 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H17">
-        <v>771</v>
+        <v>1.113</v>
       </c>
       <c r="I17">
         <v>37</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1801,28 +1810,28 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H18">
-        <v>556</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="I18">
         <v>37</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFD893E-C88F-47BA-8665-F2BEC717FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2D031-E100-49D9-A69A-E946C2DFA5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250922_20250922 (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250923_20250923" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Collector</t>
   </si>
@@ -58,256 +58,88 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>771,593.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>34,434.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>2,128,763.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>565,969.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>417,556.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>1,456,795.00</t>
-  </si>
-  <si>
-    <t>183,530,586.00</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>4.87</t>
-  </si>
-  <si>
-    <t>5.26</t>
+    <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>1,117,597.00</t>
-  </si>
-  <si>
-    <t>184,021,512.00</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>514,062.00</t>
-  </si>
-  <si>
-    <t>139,772,322.00</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>545,422.00</t>
-  </si>
-  <si>
-    <t>181,277,604.00</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>5.41</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>836,026.00</t>
-  </si>
-  <si>
-    <t>174,583,863.00</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>156,314,596.00</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>1,145,215.00</t>
-  </si>
-  <si>
-    <t>150,746,877.00</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>4.68</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>153,236,053.00</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>2,345,981.00</t>
-  </si>
-  <si>
-    <t>147,012,965.00</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>415,250.00</t>
-  </si>
-  <si>
-    <t>158,551,767.00</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>5,680,689.00</t>
-  </si>
-  <si>
-    <t>145,254,590.00</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>1,168,003.00</t>
-  </si>
-  <si>
-    <t>162,046,652.00</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>387,656.00</t>
-  </si>
-  <si>
-    <t>129,912,338.00</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>1,085,402.00</t>
-  </si>
-  <si>
-    <t>139,717,621.00</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>928,825.00</t>
-  </si>
-  <si>
-    <t>161,043,218.00</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>323,358.00</t>
-  </si>
-  <si>
-    <t>149,645,141.00</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>3,317,960.00</t>
-  </si>
-  <si>
-    <t>126,794,524.00</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>9.80</t>
+    <t>Hansyah Martha Kusuma D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1141,11 +973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1207,28 +1039,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1237,36 +1069,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1278,33 +1110,33 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1313,36 +1145,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1354,484 +1186,93 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.052</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>2.153</v>
-      </c>
-      <c r="I7">
-        <v>36</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8">
-        <v>1.179</v>
-      </c>
-      <c r="I8">
-        <v>37</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>522</v>
-      </c>
-      <c r="I9">
-        <v>37</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10">
-        <v>982</v>
-      </c>
-      <c r="I10">
-        <v>37</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <v>4.1319999999999997</v>
-      </c>
-      <c r="I11">
-        <v>37</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12">
-        <v>496</v>
-      </c>
-      <c r="I12">
-        <v>38</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13">
-        <v>754</v>
-      </c>
-      <c r="I13">
-        <v>37</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14">
-        <v>947</v>
-      </c>
-      <c r="I14">
-        <v>37</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15">
-        <v>963</v>
-      </c>
-      <c r="I15">
-        <v>37</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16">
-        <v>522</v>
-      </c>
-      <c r="I16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>37</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17">
-        <v>1.113</v>
-      </c>
-      <c r="I17">
-        <v>37</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="I18">
-        <v>37</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2D031-E100-49D9-A69A-E946C2DFA5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA4CF8F-BF1E-489C-9CB9-9B1D09E2C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250923_20250923" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250923_20250923 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>Collector</t>
   </si>
@@ -70,6 +70,15 @@
     <t>771,593.00</t>
   </si>
   <si>
+    <t>177,473,552.00</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -79,67 +88,142 @@
     <t>34,434.00</t>
   </si>
   <si>
+    <t>182,250,194.00</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
     <t>2,128,763.00</t>
   </si>
   <si>
+    <t>148,924,616.00</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
     <t>565,969.00</t>
   </si>
   <si>
+    <t>166,429,806.00</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
     <t>417,556.00</t>
   </si>
   <si>
+    <t>132,385,431.00</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>1,604,697.00</t>
+  </si>
+  <si>
+    <t>170,096,168.00</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>184,964,699.00</t>
+  </si>
+  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
+    <t>151,578,461.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>157,865,485.00</t>
+  </si>
+  <si>
     <t>Romli</t>
   </si>
   <si>
+    <t>140,737,132.00</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>138,093,844.00</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>138,522,226.00</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>159,417,831.00</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
+    <t>151,776,639.00</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
+    <t>165,184,233.00</t>
+  </si>
+  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
+    <t>150,594,311.00</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Hansyah Martha Kusuma D</t>
+    <t>125,664,463.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,12 +1057,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1039,28 +1121,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1072,33 +1154,33 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1110,33 +1192,33 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1148,33 +1230,33 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1186,93 +1268,484 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>904</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>175</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>297</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>183</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>511</v>
+      </c>
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>323</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>63</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>260</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA4CF8F-BF1E-489C-9CB9-9B1D09E2C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8250AFA-A0DF-479A-BA6F-BBEBEEDC3424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250923_20250923 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250923_20250923 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>Collector</t>
   </si>
@@ -97,25 +97,25 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>2,128,763.00</t>
+    <t>3,143,300.00</t>
   </si>
   <si>
     <t>148,924,616.00</t>
   </si>
   <si>
-    <t>1.43</t>
+    <t>2.11</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>565,969.00</t>
+    <t>4,457,357.00</t>
   </si>
   <si>
     <t>166,429,806.00</t>
   </si>
   <si>
-    <t>0.34</t>
+    <t>2.68</t>
   </si>
   <si>
     <t>3.15</t>
@@ -127,75 +127,114 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>417,556.00</t>
+    <t>942,556.00</t>
   </si>
   <si>
     <t>132,385,431.00</t>
   </si>
   <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>1,604,697.00</t>
+  </si>
+  <si>
+    <t>170,096,168.00</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>184,964,699.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>479,619.00</t>
+  </si>
+  <si>
+    <t>151,578,461.00</t>
+  </si>
+  <si>
     <t>0.32</t>
   </si>
   <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>1,604,697.00</t>
-  </si>
-  <si>
-    <t>170,096,168.00</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>11.01</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>184,964,699.00</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>151,578,461.00</t>
-  </si>
-  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
+    <t>452,511.00</t>
+  </si>
+  <si>
     <t>157,865,485.00</t>
   </si>
   <si>
+    <t>0.29</t>
+  </si>
+  <si>
     <t>Romli</t>
   </si>
   <si>
+    <t>747,151.00</t>
+  </si>
+  <si>
     <t>140,737,132.00</t>
   </si>
   <si>
+    <t>0.53</t>
+  </si>
+  <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
+    <t>450,000.00</t>
+  </si>
+  <si>
     <t>138,093,844.00</t>
   </si>
   <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
     <t>Nur Halim</t>
   </si>
   <si>
+    <t>344,060.00</t>
+  </si>
+  <si>
     <t>138,522,226.00</t>
   </si>
   <si>
+    <t>0.25</t>
+  </si>
+  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
+    <t>726,691.00</t>
+  </si>
+  <si>
     <t>159,417,831.00</t>
   </si>
   <si>
+    <t>0.46</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
@@ -203,6 +242,9 @@
   </si>
   <si>
     <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>527,055.00</t>
   </si>
   <si>
     <t>165,184,233.00</t>
@@ -1063,6 +1105,20 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1125,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>654</v>
+        <v>1.149</v>
       </c>
       <c r="I2">
         <v>18</v>
@@ -1163,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="I3">
         <v>17</v>
@@ -1189,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1201,7 +1257,7 @@
         <v>27</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <v>17</v>
@@ -1227,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1239,7 +1295,7 @@
         <v>31</v>
       </c>
       <c r="H5">
-        <v>453</v>
+        <v>637</v>
       </c>
       <c r="I5">
         <v>18</v>
@@ -1265,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -1277,7 +1333,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <v>17</v>
@@ -1315,7 +1371,7 @@
         <v>41</v>
       </c>
       <c r="H7">
-        <v>904</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="I7">
         <v>17</v>
@@ -1353,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="H8">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="I8">
         <v>18</v>
@@ -1379,19 +1435,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H9">
-        <v>297</v>
+        <v>664</v>
       </c>
       <c r="I9">
         <v>17</v>
@@ -1408,7 +1464,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1417,19 +1473,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -1446,7 +1502,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1455,19 +1511,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>511</v>
+        <v>816</v>
       </c>
       <c r="I11">
         <v>17</v>
@@ -1484,7 +1540,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1493,19 +1549,19 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="H12">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -1514,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -1522,7 +1578,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1531,19 +1587,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I13">
         <v>17</v>
@@ -1560,7 +1616,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1569,19 +1625,19 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>17</v>
@@ -1598,7 +1654,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1613,13 +1669,13 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>17</v>
@@ -1636,7 +1692,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1645,19 +1701,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>17</v>
@@ -1674,7 +1730,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1689,13 +1745,13 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I17">
         <v>17</v>
@@ -1712,7 +1768,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1727,13 +1783,13 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="I18">
         <v>18</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8250AFA-A0DF-479A-BA6F-BBEBEEDC3424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E01377-206C-44FA-9F16-1C06094E8C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250923_20250923 (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250923_20250923 (6)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>Collector</t>
   </si>
@@ -85,13 +85,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>34,434.00</t>
+    <t>720,219.00</t>
   </si>
   <si>
     <t>182,250,194.00</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>0.40</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
@@ -109,13 +109,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>4,457,357.00</t>
+    <t>7,542,074.00</t>
   </si>
   <si>
     <t>166,429,806.00</t>
   </si>
   <si>
-    <t>2.68</t>
+    <t>4.53</t>
   </si>
   <si>
     <t>3.15</t>
@@ -139,13 +139,13 @@
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>1,604,697.00</t>
+    <t>2,254,791.00</t>
   </si>
   <si>
     <t>170,096,168.00</t>
   </si>
   <si>
-    <t>0.94</t>
+    <t>1.33</t>
   </si>
   <si>
     <t>11.01</t>
@@ -172,6 +172,9 @@
     <t>0.32</t>
   </si>
   <si>
+    <t>3.98</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
@@ -187,13 +190,13 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>747,151.00</t>
+    <t>1,011,757.00</t>
   </si>
   <si>
     <t>140,737,132.00</t>
   </si>
   <si>
-    <t>0.53</t>
+    <t>0.72</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -214,13 +217,13 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>344,060.00</t>
+    <t>751,493.00</t>
   </si>
   <si>
     <t>138,522,226.00</t>
   </si>
   <si>
-    <t>0.25</t>
+    <t>0.54</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
@@ -1102,23 +1105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1181,7 +1172,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>1.149</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="I2">
         <v>18</v>
@@ -1207,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1219,7 +1210,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>227</v>
+        <v>395</v>
       </c>
       <c r="I3">
         <v>17</v>
@@ -1257,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="H4">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="I4">
         <v>17</v>
@@ -1283,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1295,7 +1286,7 @@
         <v>31</v>
       </c>
       <c r="H5">
-        <v>637</v>
+        <v>967</v>
       </c>
       <c r="I5">
         <v>18</v>
@@ -1333,7 +1324,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="I6">
         <v>17</v>
@@ -1359,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -1371,7 +1362,7 @@
         <v>41</v>
       </c>
       <c r="H7">
-        <v>1.3540000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="I7">
         <v>17</v>
@@ -1409,7 +1400,7 @@
         <v>19</v>
       </c>
       <c r="H8">
-        <v>493</v>
+        <v>695</v>
       </c>
       <c r="I8">
         <v>18</v>
@@ -1447,24 +1438,24 @@
         <v>49</v>
       </c>
       <c r="H9">
-        <v>664</v>
+        <v>969</v>
       </c>
       <c r="I9">
         <v>17</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1476,16 +1467,16 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>235</v>
+        <v>511</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -1502,7 +1493,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1511,19 +1502,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11">
-        <v>816</v>
+        <v>866</v>
       </c>
       <c r="I11">
         <v>17</v>
@@ -1540,7 +1531,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1552,16 +1543,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12">
-        <v>371</v>
+        <v>542</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -1570,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -1578,7 +1569,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1587,19 +1578,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="I13">
         <v>17</v>
@@ -1616,7 +1607,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1628,16 +1619,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="I14">
         <v>17</v>
@@ -1654,7 +1645,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1669,13 +1660,13 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="I15">
         <v>17</v>
@@ -1692,7 +1683,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1704,16 +1695,16 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I16">
         <v>17</v>
@@ -1730,7 +1721,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1745,13 +1736,13 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17">
-        <v>272</v>
+        <v>675</v>
       </c>
       <c r="I17">
         <v>17</v>
@@ -1768,7 +1759,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1783,13 +1774,13 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="I18">
         <v>18</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E01377-206C-44FA-9F16-1C06094E8C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AAED8E44-E9DC-4B83-A253-849B8667A6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250923_20250923 (6)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250924_20250924 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Collector</t>
   </si>
@@ -58,211 +58,88 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>969,136.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>387,656.00</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>362,851.00</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>35,000.00</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>367,417.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>773,416.00</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>771,593.00</t>
-  </si>
-  <si>
-    <t>177,473,552.00</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>5.33</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>720,219.00</t>
-  </si>
-  <si>
-    <t>182,250,194.00</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>3,143,300.00</t>
-  </si>
-  <si>
-    <t>148,924,616.00</t>
-  </si>
-  <si>
-    <t>2.11</t>
+    <t>234,382.00</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>7,542,074.00</t>
-  </si>
-  <si>
-    <t>166,429,806.00</t>
-  </si>
-  <si>
-    <t>4.53</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>5.56</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>942,556.00</t>
-  </si>
-  <si>
-    <t>132,385,431.00</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>2,254,791.00</t>
-  </si>
-  <si>
-    <t>170,096,168.00</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>11.01</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>184,964,699.00</t>
-  </si>
-  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>479,619.00</t>
-  </si>
-  <si>
-    <t>151,578,461.00</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>452,511.00</t>
-  </si>
-  <si>
-    <t>157,865,485.00</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>1,011,757.00</t>
-  </si>
-  <si>
-    <t>140,737,132.00</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>450,000.00</t>
-  </si>
-  <si>
-    <t>138,093,844.00</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>751,493.00</t>
-  </si>
-  <si>
-    <t>138,522,226.00</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>726,691.00</t>
-  </si>
-  <si>
-    <t>159,417,831.00</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
     <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>151,776,639.00</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>527,055.00</t>
-  </si>
-  <si>
-    <t>165,184,233.00</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>150,594,311.00</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>125,664,463.00</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +983,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,28 +1045,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.7589999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1198,36 +1075,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1236,36 +1113,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1274,36 +1151,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>967</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1312,36 +1189,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1350,36 +1227,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1388,36 +1265,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1426,373 +1303,76 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10">
-        <v>511</v>
-      </c>
-      <c r="I10">
-        <v>17</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11">
-        <v>866</v>
-      </c>
-      <c r="I11">
-        <v>17</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12">
-        <v>542</v>
-      </c>
-      <c r="I12">
-        <v>17</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13">
-        <v>139</v>
-      </c>
-      <c r="I13">
-        <v>17</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14">
-        <v>354</v>
-      </c>
-      <c r="I14">
-        <v>17</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <v>144</v>
-      </c>
-      <c r="I15">
-        <v>17</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17">
-        <v>675</v>
-      </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18">
-        <v>299</v>
-      </c>
-      <c r="I18">
-        <v>18</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AAED8E44-E9DC-4B83-A253-849B8667A6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83797C13-CAAD-4AB2-8903-606200E593B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250924_20250924 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250924_20250924 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>Collector</t>
   </si>
@@ -67,7 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>969,136.00</t>
+    <t>2,160,153.00</t>
+  </si>
+  <si>
+    <t>181,466,965.00</t>
+  </si>
+  <si>
+    <t>1.19</t>
   </si>
   <si>
     <t>0.00</t>
@@ -79,28 +85,70 @@
     <t>387,656.00</t>
   </si>
   <si>
+    <t>140,148,166.00</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>362,851.00</t>
+    <t>3,214,999.00</t>
+  </si>
+  <si>
+    <t>170,069,753.00</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>5.88</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>35,000.00</t>
+    <t>3,526,893.00</t>
+  </si>
+  <si>
+    <t>136,819,688.00</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>1.58</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>367,417.00</t>
+    <t>2,175,303.00</t>
+  </si>
+  <si>
+    <t>162,337,424.00</t>
+  </si>
+  <si>
+    <t>1.34</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>773,416.00</t>
+    <t>1,662,562.00</t>
+  </si>
+  <si>
+    <t>131,009,236.00</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.92</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
@@ -109,37 +157,112 @@
     <t>234,382.00</t>
   </si>
   <si>
+    <t>178,309,313.00</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>50,000.00</t>
+    <t>297,921.00</t>
+  </si>
+  <si>
+    <t>128,572,570.00</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>44,724.00</t>
+  </si>
+  <si>
+    <t>141,147,310.00</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>220,187.00</t>
+  </si>
+  <si>
+    <t>183,541,112.00</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>157,329,330.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>166,437,621.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>157,000,011.00</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>46,544.00</t>
+  </si>
+  <si>
+    <t>138,670,331.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>154,484,346.00</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
+    <t>759,042.00</t>
+  </si>
+  <si>
+    <t>171,139,692.00</t>
+  </si>
+  <si>
+    <t>0.44</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
+    <t>5,951,571.00</t>
+  </si>
+  <si>
+    <t>144,871,599.00</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>0.90</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1106,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1045,28 +1168,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1078,33 +1201,33 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1113,36 +1236,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1151,36 +1274,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1189,36 +1312,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>1.262</v>
+      </c>
+      <c r="I6">
         <v>16</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1227,36 +1350,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1268,33 +1391,33 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1303,76 +1426,373 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>835</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>437</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>532</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>326</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <v>237</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18">
+        <v>639</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83797C13-CAAD-4AB2-8903-606200E593B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAEEB3B-BC7F-4626-A193-74E94452F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250924_20250924 (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250924_20250924 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>Collector</t>
   </si>
@@ -82,25 +82,25 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>387,656.00</t>
+    <t>620,427.00</t>
   </si>
   <si>
     <t>140,148,166.00</t>
   </si>
   <si>
-    <t>0.28</t>
+    <t>0.44</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>3,214,999.00</t>
+    <t>3,833,320.00</t>
   </si>
   <si>
     <t>170,069,753.00</t>
   </si>
   <si>
-    <t>1.89</t>
+    <t>2.25</t>
   </si>
   <si>
     <t>2.97</t>
@@ -139,13 +139,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>1,662,562.00</t>
+    <t>3,521,531.00</t>
   </si>
   <si>
     <t>131,009,236.00</t>
   </si>
   <si>
-    <t>1.27</t>
+    <t>2.69</t>
   </si>
   <si>
     <t>1.92</t>
@@ -175,6 +175,9 @@
     <t>0.23</t>
   </si>
   <si>
+    <t>0.73</t>
+  </si>
+  <si>
     <t>Romli</t>
   </si>
   <si>
@@ -226,12 +229,15 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>46,544.00</t>
+    <t>823,164.00</t>
   </si>
   <si>
     <t>138,670,331.00</t>
   </si>
   <si>
+    <t>0.59</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
@@ -245,9 +251,6 @@
   </si>
   <si>
     <t>171,139,692.00</t>
-  </si>
-  <si>
-    <t>0.44</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -1198,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1210,7 +1213,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="I3">
         <v>17</v>
@@ -1236,7 +1239,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1248,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>819</v>
+        <v>865</v>
       </c>
       <c r="I4">
         <v>17</v>
@@ -1286,7 +1289,7 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>238</v>
+        <v>412</v>
       </c>
       <c r="I5">
         <v>17</v>
@@ -1324,7 +1327,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <v>1.262</v>
+        <v>1.3620000000000001</v>
       </c>
       <c r="I6">
         <v>16</v>
@@ -1350,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -1362,7 +1365,7 @@
         <v>41</v>
       </c>
       <c r="H7">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="I7">
         <v>17</v>
@@ -1400,7 +1403,7 @@
         <v>46</v>
       </c>
       <c r="H8">
-        <v>1.5129999999999999</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="I8">
         <v>17</v>
@@ -1438,24 +1441,24 @@
         <v>50</v>
       </c>
       <c r="H9">
-        <v>837</v>
+        <v>1.073</v>
       </c>
       <c r="I9">
         <v>17</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1467,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="I10">
         <v>16</v>
@@ -1485,15 +1488,15 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1505,16 +1508,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="I11">
         <v>16</v>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1546,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>1.0609999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1584,13 +1587,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13">
-        <v>532</v>
+        <v>647</v>
       </c>
       <c r="I13">
         <v>17</v>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1622,13 +1625,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14">
-        <v>326</v>
+        <v>457</v>
       </c>
       <c r="I14">
         <v>17</v>
@@ -1645,7 +1648,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1654,16 +1657,16 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1698,13 +1701,13 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16">
-        <v>2.0030000000000001</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="I16">
         <v>17</v>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1733,16 +1736,16 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="H17">
-        <v>237</v>
+        <v>443</v>
       </c>
       <c r="I17">
         <v>18</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1771,16 +1774,16 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>639</v>
+        <v>814</v>
       </c>
       <c r="I18">
         <v>17</v>
@@ -1789,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s">
         <v>28</v>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAEEB3B-BC7F-4626-A193-74E94452F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3F9967B4-0E71-4E18-AA31-2EE9CF930FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250924_20250924 (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250925_20250925" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Collector</t>
   </si>
@@ -58,214 +58,100 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>906,327.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>488,198.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>3,100,134.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>431,131.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>1,305,844.00</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>488,364.00</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>3,393,304.00</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>3,037,255.00</t>
+  </si>
+  <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>2,160,153.00</t>
-  </si>
-  <si>
-    <t>181,466,965.00</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>620,427.00</t>
-  </si>
-  <si>
-    <t>140,148,166.00</t>
-  </si>
-  <si>
-    <t>0.44</t>
+    <t>828,335.00</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>1,453,709.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>90,243.00</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>3,833,320.00</t>
-  </si>
-  <si>
-    <t>170,069,753.00</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>5.88</t>
+    <t>543,568.00</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>3,526,893.00</t>
-  </si>
-  <si>
-    <t>136,819,688.00</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>1.58</t>
+    <t>Nur Halim</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>2,175,303.00</t>
-  </si>
-  <si>
-    <t>162,337,424.00</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>3,521,531.00</t>
-  </si>
-  <si>
-    <t>131,009,236.00</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>234,382.00</t>
-  </si>
-  <si>
-    <t>178,309,313.00</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>297,921.00</t>
-  </si>
-  <si>
-    <t>128,572,570.00</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>44,724.00</t>
-  </si>
-  <si>
-    <t>141,147,310.00</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>220,187.00</t>
-  </si>
-  <si>
-    <t>183,541,112.00</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>157,329,330.00</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>166,437,621.00</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>157,000,011.00</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>823,164.00</t>
-  </si>
-  <si>
-    <t>138,670,331.00</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>154,484,346.00</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>759,042.00</t>
-  </si>
-  <si>
-    <t>171,139,692.00</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>5,951,571.00</t>
-  </si>
-  <si>
-    <t>144,871,599.00</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>0.90</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +995,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A14" sqref="A14:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,28 +1057,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1201,36 +1087,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1239,36 +1125,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1277,36 +1163,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1318,33 +1204,33 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.3620000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1353,36 +1239,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>866</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1391,36 +1277,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.5740000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1429,36 +1315,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1.073</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1467,36 +1353,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1505,36 +1391,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1543,36 +1429,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1581,221 +1467,56 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14">
-        <v>457</v>
-      </c>
-      <c r="I14">
-        <v>17</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>17</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16">
-        <v>2.5329999999999999</v>
-      </c>
-      <c r="I16">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <v>443</v>
-      </c>
-      <c r="I17">
-        <v>18</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18">
-        <v>814</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3F9967B4-0E71-4E18-AA31-2EE9CF930FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E348D8-BDFC-4D0C-944F-502DED5B10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250925_20250925" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250925_20250925 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>Collector</t>
   </si>
@@ -67,22 +67,52 @@
     <t>S2</t>
   </si>
   <si>
-    <t>906,327.00</t>
+    <t>4,300,290.00</t>
+  </si>
+  <si>
+    <t>181,161,937.00</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>1,172,186.00</t>
+  </si>
+  <si>
+    <t>163,604,043.00</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>488,198.00</t>
-  </si>
-  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>3,100,134.00</t>
+    <t>3,362,575.00</t>
+  </si>
+  <si>
+    <t>138,885,636.00</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>5.88</t>
   </si>
   <si>
     <t>Romli</t>
@@ -91,10 +121,25 @@
     <t>431,131.00</t>
   </si>
   <si>
+    <t>138,503,407.00</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>1,305,844.00</t>
+    <t>2,653,033.00</t>
+  </si>
+  <si>
+    <t>132,519,967.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
@@ -103,22 +148,49 @@
     <t>488,364.00</t>
   </si>
   <si>
+    <t>175,090,870.00</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
     <t>3,393,304.00</t>
   </si>
   <si>
+    <t>124,985,498.00</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>3,037,255.00</t>
+    <t>4,462,496.00</t>
+  </si>
+  <si>
+    <t>182,088,660.00</t>
+  </si>
+  <si>
+    <t>2.45</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>828,335.00</t>
+    <t>3,395,577.00</t>
+  </si>
+  <si>
+    <t>171,821,552.00</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>0.80</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
@@ -127,31 +199,100 @@
     <t>1,453,709.00</t>
   </si>
   <si>
+    <t>153,773,268.00</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>13.23</t>
+  </si>
+  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
     <t>90,243.00</t>
   </si>
   <si>
+    <t>149,436,886.00</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>543,568.00</t>
+    <t>1,134,065.00</t>
+  </si>
+  <si>
+    <t>165,151,431.00</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>136,709,694.00</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>379,713.00</t>
+  </si>
+  <si>
+    <t>164,878,289.00</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>200,000.00</t>
+  </si>
+  <si>
+    <t>168,753,581.00</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>1,027,238.00</t>
+  </si>
+  <si>
+    <t>129,576,507.00</t>
+  </si>
+  <si>
+    <t>0.79</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
+    <t>557,294.00</t>
+  </si>
+  <si>
+    <t>139,820,937.00</t>
+  </si>
+  <si>
+    <t>0.40</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1136,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A30"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1057,28 +1198,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1087,36 +1228,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1125,36 +1266,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1166,33 +1307,33 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1201,36 +1342,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1242,33 +1383,33 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1280,33 +1421,33 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
         <v>16</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1315,36 +1456,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>260</v>
+      </c>
+      <c r="I9">
         <v>16</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1353,36 +1494,36 @@
         <v>14</v>
       </c>
       <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10">
         <v>16</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1394,33 +1535,33 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
         <v>16</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1432,33 +1573,33 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <v>154</v>
+      </c>
+      <c r="I12">
         <v>16</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1467,56 +1608,221 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <v>454</v>
+      </c>
+      <c r="I13">
         <v>16</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18">
+        <v>116</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E348D8-BDFC-4D0C-944F-502DED5B10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD49811-A672-48C0-A71E-4D500E18309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250925_20250925 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250925_20250925 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Collector</t>
   </si>
@@ -85,13 +85,16 @@
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>1,172,186.00</t>
+    <t>1,379,742.00</t>
   </si>
   <si>
     <t>163,604,043.00</t>
   </si>
   <si>
-    <t>0.72</t>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>5.58</t>
   </si>
   <si>
     <t>0.00</t>
@@ -118,16 +121,16 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>431,131.00</t>
+    <t>1,489,369.00</t>
   </si>
   <si>
     <t>138,503,407.00</t>
   </si>
   <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>1.41</t>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>4.58</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
@@ -142,16 +145,19 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>10.80</t>
+  </si>
+  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>488,364.00</t>
+    <t>757,364.00</t>
   </si>
   <si>
     <t>175,090,870.00</t>
   </si>
   <si>
-    <t>0.28</t>
+    <t>0.43</t>
   </si>
   <si>
     <t>Nuraini</t>
@@ -169,13 +175,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>4,462,496.00</t>
+    <t>5,390,208.00</t>
   </si>
   <si>
     <t>182,088,660.00</t>
   </si>
   <si>
-    <t>2.45</t>
+    <t>2.96</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
@@ -223,13 +229,13 @@
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>1,134,065.00</t>
+    <t>2,374,379.00</t>
   </si>
   <si>
     <t>165,151,431.00</t>
   </si>
   <si>
-    <t>0.69</t>
+    <t>1.44</t>
   </si>
   <si>
     <t>4.03</t>
@@ -250,37 +256,40 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>379,713.00</t>
+    <t>2,170,520.00</t>
   </si>
   <si>
     <t>164,878,289.00</t>
   </si>
   <si>
-    <t>0.23</t>
+    <t>1.32</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>200,000.00</t>
+    <t>1,200,000.00</t>
   </si>
   <si>
     <t>168,753,581.00</t>
   </si>
   <si>
-    <t>0.12</t>
+    <t>0.71</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>1,027,238.00</t>
+    <t>1,914,209.00</t>
   </si>
   <si>
     <t>129,576,507.00</t>
   </si>
   <si>
-    <t>0.79</t>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>3.49</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -293,6 +302,9 @@
   </si>
   <si>
     <t>0.40</t>
+  </si>
+  <si>
+    <t>5.42</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1214,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="I2">
         <v>16</v>
@@ -1228,7 +1240,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1240,7 +1252,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>320</v>
+        <v>710</v>
       </c>
       <c r="I3">
         <v>17</v>
@@ -1252,12 +1264,12 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1269,16 +1281,16 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="I4">
         <v>17</v>
@@ -1287,15 +1299,15 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1304,36 +1316,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="I5">
         <v>17</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1345,33 +1357,33 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I6">
         <v>17</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1380,19 +1392,19 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>334</v>
       </c>
       <c r="I7">
         <v>17</v>
@@ -1401,15 +1413,15 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1421,16 +1433,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="I8">
         <v>16</v>
@@ -1439,15 +1451,15 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1456,19 +1468,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9">
-        <v>260</v>
+        <v>940</v>
       </c>
       <c r="I9">
         <v>16</v>
@@ -1477,15 +1489,15 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1497,16 +1509,16 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="I10">
         <v>16</v>
@@ -1515,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -1523,7 +1535,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1535,16 +1547,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="I11">
         <v>16</v>
@@ -1553,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
@@ -1561,7 +1573,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1573,16 +1585,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12">
-        <v>154</v>
+        <v>692</v>
       </c>
       <c r="I12">
         <v>16</v>
@@ -1591,15 +1603,15 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1608,19 +1620,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13">
-        <v>454</v>
+        <v>2.794</v>
       </c>
       <c r="I13">
         <v>16</v>
@@ -1629,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1637,7 +1649,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1649,16 +1661,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14">
-        <v>83</v>
+        <v>465</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1667,15 +1679,15 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1684,19 +1696,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>308</v>
       </c>
       <c r="I15">
         <v>17</v>
@@ -1705,15 +1717,15 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1722,19 +1734,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1743,15 +1755,15 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1760,36 +1772,36 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1801,28 +1813,28 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H18">
-        <v>116</v>
+        <v>640</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD49811-A672-48C0-A71E-4D500E18309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{391D5490-126F-458C-8E34-16E3B6CF3980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250925_20250925 (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250926_20250926" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Collector</t>
   </si>
@@ -58,253 +58,97 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>530,537.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>4,300,290.00</t>
-  </si>
-  <si>
-    <t>181,161,937.00</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>8.06</t>
-  </si>
-  <si>
-    <t>6.25</t>
+    <t>500,000.00</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>507,203.00</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>896,943.00</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>1,092,291.00</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>444,992.00</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>462,956.00</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>1,379,742.00</t>
-  </si>
-  <si>
-    <t>163,604,043.00</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>5.58</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>414,421.00</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>805,267.00</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>432,788.00</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>3,362,575.00</t>
-  </si>
-  <si>
-    <t>138,885,636.00</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>3.66</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>1,489,369.00</t>
-  </si>
-  <si>
-    <t>138,503,407.00</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>4.58</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>2,653,033.00</t>
-  </si>
-  <si>
-    <t>132,519,967.00</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10.80</t>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>757,364.00</t>
-  </si>
-  <si>
-    <t>175,090,870.00</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>3,393,304.00</t>
-  </si>
-  <si>
-    <t>124,985,498.00</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>5,390,208.00</t>
-  </si>
-  <si>
-    <t>182,088,660.00</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>3,395,577.00</t>
-  </si>
-  <si>
-    <t>171,821,552.00</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>1,453,709.00</t>
-  </si>
-  <si>
-    <t>153,773,268.00</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>13.23</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>90,243.00</t>
-  </si>
-  <si>
-    <t>149,436,886.00</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>2,374,379.00</t>
-  </si>
-  <si>
-    <t>165,151,431.00</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>50,000.00</t>
-  </si>
-  <si>
-    <t>136,709,694.00</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>2,170,520.00</t>
-  </si>
-  <si>
-    <t>164,878,289.00</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>1,200,000.00</t>
-  </si>
-  <si>
-    <t>168,753,581.00</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>1,914,209.00</t>
-  </si>
-  <si>
-    <t>129,576,507.00</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>3.49</t>
-  </si>
-  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>557,294.00</t>
-  </si>
-  <si>
-    <t>139,820,937.00</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>5.42</t>
+    <t>Hansyah Martha Kusuma D</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1210,28 +1054,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1240,36 +1084,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1278,36 +1122,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1316,36 +1160,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1354,36 +1198,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1392,36 +1236,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1430,36 +1274,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1468,36 +1312,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1506,36 +1350,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1544,297 +1388,71 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12">
-        <v>692</v>
-      </c>
-      <c r="I12">
-        <v>16</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13">
-        <v>2.794</v>
-      </c>
-      <c r="I13">
-        <v>16</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14">
-        <v>465</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15">
-        <v>308</v>
-      </c>
-      <c r="I15">
-        <v>17</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17">
-        <v>356</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18">
-        <v>640</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{391D5490-126F-458C-8E34-16E3B6CF3980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FF3B28-B28F-48AA-90FA-3D482242D3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250926_20250926" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250926_20250926 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>Collector</t>
   </si>
@@ -70,19 +70,37 @@
     <t>530,537.00</t>
   </si>
   <si>
+    <t>165,624,920.00</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>500,000.00</t>
+    <t>617,036.00</t>
+  </si>
+  <si>
+    <t>179,431,517.00</t>
+  </si>
+  <si>
+    <t>0.34</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>507,203.00</t>
+    <t>1,013,098.00</t>
+  </si>
+  <si>
+    <t>136,838,109.00</t>
+  </si>
+  <si>
+    <t>0.74</t>
   </si>
   <si>
     <t>Nur Halim</t>
@@ -91,64 +109,178 @@
     <t>896,943.00</t>
   </si>
   <si>
+    <t>128,602,313.00</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
     <t>1,092,291.00</t>
   </si>
   <si>
+    <t>130,521,304.00</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>444,992.00</t>
+    <t>1,163,316.00</t>
+  </si>
+  <si>
+    <t>118,511,727.00</t>
+  </si>
+  <si>
+    <t>0.98</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>462,956.00</t>
+    <t>4,895,492.00</t>
+  </si>
+  <si>
+    <t>176,230,051.00</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>13.12</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>414,421.00</t>
+    <t>701,726.00</t>
+  </si>
+  <si>
+    <t>163,513,240.00</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>7.14</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>805,267.00</t>
+    <t>1,257,955.00</t>
+  </si>
+  <si>
+    <t>145,922,624.00</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>2.09</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>432,788.00</t>
+    <t>3,277,246.00</t>
+  </si>
+  <si>
+    <t>158,361,188.00</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>497,656.00</t>
+  </si>
+  <si>
+    <t>179,322,368.00</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>1,834,967.00</t>
+  </si>
+  <si>
+    <t>137,402,050.00</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>780,901.00</t>
+  </si>
+  <si>
+    <t>162,723,184.00</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>639,218.00</t>
+  </si>
+  <si>
+    <t>158,687,546.00</t>
+  </si>
+  <si>
+    <t>0.40</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
+    <t>136,513,075.00</t>
+  </si>
+  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
+    <t>113,124.00</t>
+  </si>
+  <si>
+    <t>153,903,585.00</t>
+  </si>
+  <si>
+    <t>0.07</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Hansyah Martha Kusuma D</t>
+    <t>501,529.00</t>
+  </si>
+  <si>
+    <t>133,081,004.00</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>5.50</t>
   </si>
 </sst>
 </file>
@@ -989,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,28 +1186,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1084,36 +1216,36 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1122,36 +1254,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1163,33 +1295,33 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1201,33 +1333,33 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1236,36 +1368,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1274,36 +1406,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1312,36 +1444,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1350,36 +1482,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1388,71 +1520,297 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <v>265</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>455</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>578</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>1.73</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>505</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17">
+        <v>350</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18">
+        <v>671</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FF3B28-B28F-48AA-90FA-3D482242D3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2B967A-7565-4006-83B4-7C11040DDA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250926_20250926 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250926_20250926 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>Collector</t>
   </si>
@@ -82,73 +82,79 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>617,036.00</t>
+    <t>3,309,416.00</t>
   </si>
   <si>
     <t>179,431,517.00</t>
   </si>
   <si>
-    <t>0.34</t>
+    <t>1.84</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>1,013,098.00</t>
+    <t>1,113,098.00</t>
   </si>
   <si>
     <t>136,838,109.00</t>
   </si>
   <si>
-    <t>0.74</t>
+    <t>0.81</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>896,943.00</t>
+    <t>1,696,943.00</t>
   </si>
   <si>
     <t>128,602,313.00</t>
   </si>
   <si>
-    <t>0.70</t>
+    <t>1.32</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>1,092,291.00</t>
+    <t>1,537,622.00</t>
   </si>
   <si>
     <t>130,521,304.00</t>
   </si>
   <si>
-    <t>0.84</t>
+    <t>1.18</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>1,163,316.00</t>
+    <t>1,461,376.00</t>
   </si>
   <si>
     <t>118,511,727.00</t>
   </si>
   <si>
-    <t>0.98</t>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>7.14</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>4,895,492.00</t>
+    <t>4,940,492.00</t>
   </si>
   <si>
     <t>176,230,051.00</t>
   </si>
   <si>
-    <t>2.78</t>
+    <t>2.80</t>
   </si>
   <si>
     <t>13.12</t>
@@ -166,22 +172,19 @@
     <t>0.43</t>
   </si>
   <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>7.14</t>
+    <t>3.02</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>1,257,955.00</t>
+    <t>1,440,650.00</t>
   </si>
   <si>
     <t>145,922,624.00</t>
   </si>
   <si>
-    <t>0.86</t>
+    <t>0.99</t>
   </si>
   <si>
     <t>2.09</t>
@@ -211,6 +214,12 @@
     <t>0.28</t>
   </si>
   <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
@@ -259,25 +268,22 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>113,124.00</t>
+    <t>2,061,127.00</t>
   </si>
   <si>
     <t>153,903,585.00</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>501,529.00</t>
+    <t>653,237.00</t>
   </si>
   <si>
     <t>133,081,004.00</t>
   </si>
   <si>
-    <t>0.38</t>
+    <t>0.49</t>
   </si>
   <si>
     <t>5.50</t>
@@ -1190,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1216,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1228,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -1254,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1266,7 +1272,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>623</v>
+        <v>741</v>
       </c>
       <c r="I4">
         <v>14</v>
@@ -1292,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1304,7 +1310,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1330,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1342,7 +1348,7 @@
         <v>34</v>
       </c>
       <c r="H6">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="I6">
         <v>14</v>
@@ -1368,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1380,24 +1386,24 @@
         <v>38</v>
       </c>
       <c r="H7">
-        <v>546</v>
+        <v>725</v>
       </c>
       <c r="I7">
         <v>14</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1406,19 +1412,19 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>693</v>
+        <v>1.135</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1427,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1435,7 +1441,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1447,16 +1453,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9">
-        <v>971</v>
+        <v>1.107</v>
       </c>
       <c r="I9">
         <v>14</v>
@@ -1465,15 +1471,15 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1482,19 +1488,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1503,15 +1509,15 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1523,16 +1529,16 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1561,33 +1567,33 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="I12">
         <v>15</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1599,16 +1605,16 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1637,16 +1643,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H14">
-        <v>578</v>
+        <v>767</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1655,15 +1661,15 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1675,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H15">
-        <v>1.73</v>
+        <v>2.2320000000000002</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1716,13 +1722,13 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16">
-        <v>505</v>
+        <v>973</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -1739,7 +1745,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1748,19 +1754,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H17">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="I17">
         <v>16</v>
@@ -1777,7 +1783,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1786,31 +1792,31 @@
         <v>14</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <v>870</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <v>671</v>
-      </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/riska.xlsx
+++ b/riska.xlsx
@@ -8,72 +8,297 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979055AE-989E-4982-9441-8F0F5CC57923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE8E5E9-B5DD-4062-AF93-FAE4E249D3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250926_20250926 (6)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250926_20250926 (7)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Collector,Team,Cycle,Repayment_collections,Repayment_amount,Pending Amount,Pending Amount Recovery,Talk_time,New_collections,Repayment_new_collections,New_collection_amount_rate,New_collection_count_rate</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati,Hansyah_S2l,S2,2,"530,537.00","165,624,920.00",0.32,840,14,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Riska Nurlita,Hansyah_S2l,S2,6,"3,524,933.00","179,431,517.00",1.96,752,14,1,2.09,7.14</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti,Hansyah_S2l,S2,9,"1,113,098.00","136,838,109.00",0.81,"1,017",14,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Nur Halim,Hansyah_S2l,S2,6,"1,696,943.00","128,602,313.00",1.32,594,15,0,5.85,0.00</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha,Hansyah_S2l,S2,7,"1,537,622.00","130,521,304.00",1.18,755,14,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Nuraini,Hansyah_S2l,S2,8,"1,461,376.00","118,511,727.00",1.23,856,14,1,3.35,7.14</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu,Hansyah_S2l,S2,10,"4,940,492.00","176,230,051.00",2.80,"1,698",15,0,13.42,0.00</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing,Hansyah_S2l,S2,5,"701,726.00","163,513,240.00",0.43,"1,363",14,1,3.02,7.14</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono,Hansyah_S2l,S2,8,"1,440,650.00","145,922,624.00",0.99,700,14,1,2.09,7.14</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P,Hansyah_S2l,S2,6,"3,277,246.00","158,361,188.00",2.07,584,15,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Sucika Wardani,Hansyah_S2l,S2,2,"497,656.00","179,322,368.00",0.28,444,15,1,2.17,6.67</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama,Hansyah_S2l,S2,3,"1,834,967.00","137,402,050.00",1.34,572,15,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga,Hansyah_S2l,S2,1,"780,901.00","162,723,184.00",0.48,888,14,1,8.50,7.14</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua,Hansyah_S2l,S2,3,"1,370,000.00","158,687,546.00",0.86,"2,657",15,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Romli,Hansyah_S2l,S2,1,"534,016.00","136,513,075.00",0.39,"1,418",15,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Aldi Taufik,Hansyah_S2l,S2,9,"2,609,306.00","153,903,585.00",1.70,719,16,0,0.00,0.00</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing,Hansyah_S2l,S2,2,"653,237.00","133,081,004.00",0.49,"1,064",14,1,7.04,7.14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Repayment_collections</t>
+  </si>
+  <si>
+    <t>Repayment_amount</t>
+  </si>
+  <si>
+    <t>Pending Amount</t>
+  </si>
+  <si>
+    <t>Pending Amount Recovery</t>
+  </si>
+  <si>
+    <t>Talk_time</t>
+  </si>
+  <si>
+    <t>New_collections</t>
+  </si>
+  <si>
+    <t>Repayment_new_collections</t>
+  </si>
+  <si>
+    <t>New_collection_amount_rate</t>
+  </si>
+  <si>
+    <t>New_collection_count_rate</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>530,537.00</t>
+  </si>
+  <si>
+    <t>165,624,920.00</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>3,524,933.00</t>
+  </si>
+  <si>
+    <t>179,431,517.00</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>1,113,098.00</t>
+  </si>
+  <si>
+    <t>136,838,109.00</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>1,696,943.00</t>
+  </si>
+  <si>
+    <t>128,602,313.00</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>1,537,622.00</t>
+  </si>
+  <si>
+    <t>130,521,304.00</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>1,461,376.00</t>
+  </si>
+  <si>
+    <t>118,511,727.00</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>4,940,492.00</t>
+  </si>
+  <si>
+    <t>176,230,051.00</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>13.42</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>701,726.00</t>
+  </si>
+  <si>
+    <t>163,513,240.00</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>1,440,650.00</t>
+  </si>
+  <si>
+    <t>145,922,624.00</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>3,277,246.00</t>
+  </si>
+  <si>
+    <t>158,361,188.00</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>497,656.00</t>
+  </si>
+  <si>
+    <t>179,322,368.00</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>1,834,967.00</t>
+  </si>
+  <si>
+    <t>137,402,050.00</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>780,901.00</t>
+  </si>
+  <si>
+    <t>162,723,184.00</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>1,370,000.00</t>
+  </si>
+  <si>
+    <t>158,687,546.00</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>534,016.00</t>
+  </si>
+  <si>
+    <t>136,513,075.00</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>2,609,306.00</t>
+  </si>
+  <si>
+    <t>153,903,585.00</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>653,237.00</t>
+  </si>
+  <si>
+    <t>133,081,004.00</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>7.04</t>
   </si>
 </sst>
 </file>
@@ -914,100 +1139,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>840</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>752</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>594</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>755</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>856</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>1.698</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>1.363</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>700</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>584</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>444</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>572</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14">
+        <v>888</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15">
+        <v>2.657</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17">
+        <v>719</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
